--- a/forage_plant_location.xlsx
+++ b/forage_plant_location.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://naturalhistorymuseum-my.sharepoint.com/personal/a_varah_nhm_ac_uk/Documents/Black Grass Resistance Initiative/Biodiversity/Risk/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elinfalla/Dropbox/2020-21/_Imperial_MSc/_Project/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{09D054DE-85CE-4D10-AD92-053F458C8001}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F83F5CE4-7750-40D9-B0C3-078A71A40213}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D90EC595-E4D6-2D4F-9E0C-351B1E5A55FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B0640254-897E-44C3-B32E-9281997335F7}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" xr2:uid="{B0640254-897E-44C3-B32E-9281997335F7}"/>
   </bookViews>
   <sheets>
     <sheet name="forage_plant_location" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="66">
   <si>
     <t>plantfamily</t>
   </si>
@@ -228,6 +229,9 @@
   </si>
   <si>
     <t>Violaceae</t>
+  </si>
+  <si>
+    <t>Poaceae</t>
   </si>
 </sst>
 </file>
@@ -264,12 +268,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -284,7 +294,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -307,6 +317,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -629,32 +646,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{109D9CEA-5A8E-4E17-BF9C-87EBAB376EF1}">
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:H56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M12" sqref="M12"/>
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.140625" customWidth="1"/>
-    <col min="2" max="8" width="12.7109375" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.140625" customWidth="1"/>
-    <col min="15" max="15" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.1640625" customWidth="1"/>
+    <col min="2" max="8" width="12.6640625" customWidth="1"/>
+    <col min="9" max="9" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.1640625" customWidth="1"/>
+    <col min="15" max="15" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -680,59 +697,59 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B2" s="9">
+        <v>1</v>
+      </c>
+      <c r="C2" s="9">
+        <v>0</v>
+      </c>
+      <c r="D2" s="9">
+        <v>0</v>
+      </c>
+      <c r="E2" s="9">
+        <v>0</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="9">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9">
+        <v>0</v>
+      </c>
+      <c r="D3" s="9">
+        <v>0</v>
+      </c>
+      <c r="E3" s="9">
+        <v>0</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -758,7 +775,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -784,7 +801,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
@@ -810,59 +827,59 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="2">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="B7" s="9">
+        <v>1</v>
+      </c>
+      <c r="C7" s="9">
+        <v>0</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="2">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0</v>
-      </c>
-      <c r="F8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="9">
+        <v>1</v>
+      </c>
+      <c r="C8" s="9">
+        <v>0</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -888,33 +905,33 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="2">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1</v>
-      </c>
-      <c r="D10" s="2">
-        <v>1</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
-      <c r="F10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="9">
+        <v>1</v>
+      </c>
+      <c r="C10" s="9">
+        <v>1</v>
+      </c>
+      <c r="D10" s="9">
+        <v>1</v>
+      </c>
+      <c r="E10" s="9">
+        <v>0</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -940,7 +957,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
@@ -966,33 +983,33 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="2">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0</v>
-      </c>
-      <c r="F13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="9">
+        <v>1</v>
+      </c>
+      <c r="C13" s="9">
+        <v>0</v>
+      </c>
+      <c r="D13" s="9">
+        <v>0</v>
+      </c>
+      <c r="E13" s="9">
+        <v>0</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
@@ -1018,7 +1035,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
@@ -1044,7 +1061,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
@@ -1070,7 +1087,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
@@ -1096,7 +1113,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
@@ -1122,7 +1139,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
@@ -1148,33 +1165,33 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="2">
-        <v>1</v>
-      </c>
-      <c r="C20" s="2">
-        <v>0</v>
-      </c>
-      <c r="D20" s="2">
-        <v>0</v>
-      </c>
-      <c r="E20" s="2">
-        <v>0</v>
-      </c>
-      <c r="F20" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20" t="s">
-        <v>9</v>
-      </c>
-      <c r="H20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="9">
+        <v>1</v>
+      </c>
+      <c r="C20" s="9">
+        <v>0</v>
+      </c>
+      <c r="D20" s="9">
+        <v>0</v>
+      </c>
+      <c r="E20" s="9">
+        <v>0</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>30</v>
       </c>
@@ -1200,33 +1217,33 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="2">
-        <v>1</v>
-      </c>
-      <c r="C22" s="2">
-        <v>1</v>
-      </c>
-      <c r="D22" s="2">
-        <v>1</v>
-      </c>
-      <c r="E22" s="2">
-        <v>0</v>
-      </c>
-      <c r="F22" t="s">
-        <v>9</v>
-      </c>
-      <c r="G22" t="s">
-        <v>9</v>
-      </c>
-      <c r="H22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="9">
+        <v>1</v>
+      </c>
+      <c r="C22" s="9">
+        <v>1</v>
+      </c>
+      <c r="D22" s="9">
+        <v>1</v>
+      </c>
+      <c r="E22" s="9">
+        <v>0</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>32</v>
       </c>
@@ -1252,85 +1269,85 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="2">
-        <v>1</v>
-      </c>
-      <c r="C24" s="2">
-        <v>0</v>
-      </c>
-      <c r="D24" s="2">
-        <v>0</v>
-      </c>
-      <c r="E24" s="2">
-        <v>0</v>
-      </c>
-      <c r="F24" t="s">
-        <v>9</v>
-      </c>
-      <c r="G24" t="s">
-        <v>9</v>
-      </c>
-      <c r="H24" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="B24" s="9">
+        <v>1</v>
+      </c>
+      <c r="C24" s="9">
+        <v>0</v>
+      </c>
+      <c r="D24" s="9">
+        <v>0</v>
+      </c>
+      <c r="E24" s="9">
+        <v>0</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="2">
-        <v>0</v>
-      </c>
-      <c r="C25" s="2">
-        <v>0</v>
-      </c>
-      <c r="D25" s="2">
-        <v>0</v>
-      </c>
-      <c r="E25" s="2">
-        <v>1</v>
-      </c>
-      <c r="F25" t="s">
-        <v>9</v>
-      </c>
-      <c r="G25" t="s">
-        <v>9</v>
-      </c>
-      <c r="H25" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="B25" s="9">
+        <v>0</v>
+      </c>
+      <c r="C25" s="9">
+        <v>0</v>
+      </c>
+      <c r="D25" s="9">
+        <v>0</v>
+      </c>
+      <c r="E25" s="9">
+        <v>1</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="2">
-        <v>1</v>
-      </c>
-      <c r="C26" s="2">
-        <v>1</v>
-      </c>
-      <c r="D26" s="2">
-        <v>1</v>
-      </c>
-      <c r="E26" s="2">
-        <v>1</v>
-      </c>
-      <c r="F26" t="s">
-        <v>9</v>
-      </c>
-      <c r="G26" t="s">
-        <v>9</v>
-      </c>
-      <c r="H26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="9">
+        <v>1</v>
+      </c>
+      <c r="C26" s="9">
+        <v>1</v>
+      </c>
+      <c r="D26" s="9">
+        <v>1</v>
+      </c>
+      <c r="E26" s="9">
+        <v>1</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>36</v>
       </c>
@@ -1356,85 +1373,85 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="2">
-        <v>1</v>
-      </c>
-      <c r="C28" s="2">
-        <v>0</v>
-      </c>
-      <c r="D28" s="2">
-        <v>0</v>
-      </c>
-      <c r="E28" s="2">
-        <v>0</v>
-      </c>
-      <c r="F28" t="s">
-        <v>9</v>
-      </c>
-      <c r="G28" t="s">
-        <v>9</v>
-      </c>
-      <c r="H28" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="B28" s="9">
+        <v>1</v>
+      </c>
+      <c r="C28" s="9">
+        <v>0</v>
+      </c>
+      <c r="D28" s="9">
+        <v>0</v>
+      </c>
+      <c r="E28" s="9">
+        <v>0</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="2">
-        <v>1</v>
-      </c>
-      <c r="C29" s="2">
-        <v>1</v>
-      </c>
-      <c r="D29" s="2">
-        <v>0</v>
-      </c>
-      <c r="E29" s="2">
-        <v>1</v>
-      </c>
-      <c r="F29" t="s">
-        <v>9</v>
-      </c>
-      <c r="G29" t="s">
-        <v>9</v>
-      </c>
-      <c r="H29" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="B29" s="9">
+        <v>1</v>
+      </c>
+      <c r="C29" s="9">
+        <v>1</v>
+      </c>
+      <c r="D29" s="9">
+        <v>0</v>
+      </c>
+      <c r="E29" s="9">
+        <v>1</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="2">
-        <v>1</v>
-      </c>
-      <c r="C30" s="2">
-        <v>0</v>
-      </c>
-      <c r="D30" s="2">
-        <v>0</v>
-      </c>
-      <c r="E30" s="2">
-        <v>1</v>
-      </c>
-      <c r="F30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G30" t="s">
-        <v>9</v>
-      </c>
-      <c r="H30" t="s">
+      <c r="B30" s="9">
+        <v>1</v>
+      </c>
+      <c r="C30" s="9">
+        <v>0</v>
+      </c>
+      <c r="D30" s="9">
+        <v>0</v>
+      </c>
+      <c r="E30" s="9">
+        <v>1</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H30" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>40</v>
       </c>
@@ -1460,7 +1477,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>41</v>
       </c>
@@ -1486,33 +1503,33 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+    <row r="33" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B33" s="2">
-        <v>0</v>
-      </c>
-      <c r="C33" s="2">
-        <v>0</v>
-      </c>
-      <c r="D33" s="2">
-        <v>0</v>
-      </c>
-      <c r="E33" s="2">
-        <v>1</v>
-      </c>
-      <c r="F33" t="s">
-        <v>9</v>
-      </c>
-      <c r="G33" t="s">
-        <v>9</v>
-      </c>
-      <c r="H33" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="9">
+        <v>0</v>
+      </c>
+      <c r="C33" s="9">
+        <v>0</v>
+      </c>
+      <c r="D33" s="9">
+        <v>0</v>
+      </c>
+      <c r="E33" s="9">
+        <v>1</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>43</v>
       </c>
@@ -1538,7 +1555,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>44</v>
       </c>
@@ -1564,33 +1581,33 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+    <row r="36" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="2">
-        <v>1</v>
-      </c>
-      <c r="C36" s="2">
-        <v>0</v>
-      </c>
-      <c r="D36" s="2">
-        <v>0</v>
-      </c>
-      <c r="E36" s="2">
-        <v>0</v>
-      </c>
-      <c r="F36" t="s">
-        <v>9</v>
-      </c>
-      <c r="G36" t="s">
-        <v>9</v>
-      </c>
-      <c r="H36" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B36" s="9">
+        <v>1</v>
+      </c>
+      <c r="C36" s="9">
+        <v>0</v>
+      </c>
+      <c r="D36" s="9">
+        <v>0</v>
+      </c>
+      <c r="E36" s="9">
+        <v>0</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>46</v>
       </c>
@@ -1616,7 +1633,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>47</v>
       </c>
@@ -1642,33 +1659,33 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+    <row r="39" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B39" s="2">
-        <v>0</v>
-      </c>
-      <c r="C39" s="2">
-        <v>1</v>
-      </c>
-      <c r="D39" s="2">
-        <v>0</v>
-      </c>
-      <c r="E39" s="2">
-        <v>1</v>
-      </c>
-      <c r="F39" t="s">
-        <v>9</v>
-      </c>
-      <c r="G39" t="s">
-        <v>9</v>
-      </c>
-      <c r="H39" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="9">
+        <v>0</v>
+      </c>
+      <c r="C39" s="9">
+        <v>1</v>
+      </c>
+      <c r="D39" s="9">
+        <v>0</v>
+      </c>
+      <c r="E39" s="9">
+        <v>1</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H39" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>49</v>
       </c>
@@ -1694,33 +1711,33 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+    <row r="41" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B41" s="2">
-        <v>1</v>
-      </c>
-      <c r="C41" s="2">
-        <v>1</v>
-      </c>
-      <c r="D41" s="2">
-        <v>1</v>
-      </c>
-      <c r="E41" s="2">
-        <v>1</v>
-      </c>
-      <c r="F41" t="s">
-        <v>9</v>
-      </c>
-      <c r="G41" t="s">
-        <v>9</v>
-      </c>
-      <c r="H41" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B41" s="9">
+        <v>1</v>
+      </c>
+      <c r="C41" s="9">
+        <v>1</v>
+      </c>
+      <c r="D41" s="9">
+        <v>1</v>
+      </c>
+      <c r="E41" s="9">
+        <v>1</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H41" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>51</v>
       </c>
@@ -1746,33 +1763,33 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+    <row r="43" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A43" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B43" s="2">
-        <v>0</v>
-      </c>
-      <c r="C43" s="2">
-        <v>1</v>
-      </c>
-      <c r="D43" s="2">
-        <v>0</v>
-      </c>
-      <c r="E43" s="2">
-        <v>0</v>
-      </c>
-      <c r="F43" t="s">
-        <v>9</v>
-      </c>
-      <c r="G43" t="s">
-        <v>9</v>
-      </c>
-      <c r="H43" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B43" s="9">
+        <v>0</v>
+      </c>
+      <c r="C43" s="9">
+        <v>1</v>
+      </c>
+      <c r="D43" s="9">
+        <v>0</v>
+      </c>
+      <c r="E43" s="9">
+        <v>0</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H43" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>53</v>
       </c>
@@ -1798,7 +1815,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>54</v>
       </c>
@@ -1824,33 +1841,33 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+    <row r="46" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A46" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B46" s="2">
-        <v>1</v>
-      </c>
-      <c r="C46" s="2">
-        <v>1</v>
-      </c>
-      <c r="D46" s="2">
-        <v>1</v>
-      </c>
-      <c r="E46" s="2">
-        <v>0</v>
-      </c>
-      <c r="F46" t="s">
-        <v>9</v>
-      </c>
-      <c r="G46" t="s">
-        <v>9</v>
-      </c>
-      <c r="H46" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B46" s="9">
+        <v>1</v>
+      </c>
+      <c r="C46" s="9">
+        <v>1</v>
+      </c>
+      <c r="D46" s="9">
+        <v>1</v>
+      </c>
+      <c r="E46" s="9">
+        <v>0</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H46" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>56</v>
       </c>
@@ -1876,7 +1893,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>57</v>
       </c>
@@ -1902,59 +1919,59 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+    <row r="49" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A49" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B49" s="2">
-        <v>1</v>
-      </c>
-      <c r="C49" s="2">
-        <v>1</v>
-      </c>
-      <c r="D49" s="2">
-        <v>1</v>
-      </c>
-      <c r="E49" s="2">
-        <v>0</v>
-      </c>
-      <c r="F49" t="s">
-        <v>9</v>
-      </c>
-      <c r="G49" t="s">
-        <v>9</v>
-      </c>
-      <c r="H49" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+      <c r="B49" s="9">
+        <v>1</v>
+      </c>
+      <c r="C49" s="9">
+        <v>1</v>
+      </c>
+      <c r="D49" s="9">
+        <v>1</v>
+      </c>
+      <c r="E49" s="9">
+        <v>0</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H49" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A50" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B50" s="2">
-        <v>1</v>
-      </c>
-      <c r="C50" s="2">
-        <v>0</v>
-      </c>
-      <c r="D50" s="2">
-        <v>0</v>
-      </c>
-      <c r="E50" s="2">
-        <v>0</v>
-      </c>
-      <c r="F50" t="s">
-        <v>9</v>
-      </c>
-      <c r="G50" t="s">
-        <v>9</v>
-      </c>
-      <c r="H50" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B50" s="9">
+        <v>1</v>
+      </c>
+      <c r="C50" s="9">
+        <v>0</v>
+      </c>
+      <c r="D50" s="9">
+        <v>0</v>
+      </c>
+      <c r="E50" s="9">
+        <v>0</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G50" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H50" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>60</v>
       </c>
@@ -1980,7 +1997,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>61</v>
       </c>
@@ -2006,59 +2023,59 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+    <row r="53" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A53" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B53" s="2">
-        <v>1</v>
-      </c>
-      <c r="C53" s="2">
-        <v>1</v>
-      </c>
-      <c r="D53" s="2">
-        <v>1</v>
-      </c>
-      <c r="E53" s="2">
-        <v>0</v>
-      </c>
-      <c r="F53" t="s">
-        <v>9</v>
-      </c>
-      <c r="G53" t="s">
-        <v>9</v>
-      </c>
-      <c r="H53" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+      <c r="B53" s="9">
+        <v>1</v>
+      </c>
+      <c r="C53" s="9">
+        <v>1</v>
+      </c>
+      <c r="D53" s="9">
+        <v>1</v>
+      </c>
+      <c r="E53" s="9">
+        <v>0</v>
+      </c>
+      <c r="F53" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G53" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H53" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A54" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B54" s="2">
-        <v>1</v>
-      </c>
-      <c r="C54" s="2">
-        <v>1</v>
-      </c>
-      <c r="D54" s="2">
-        <v>1</v>
-      </c>
-      <c r="E54" s="2">
-        <v>1</v>
-      </c>
-      <c r="F54" t="s">
-        <v>9</v>
-      </c>
-      <c r="G54" t="s">
-        <v>9</v>
-      </c>
-      <c r="H54" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B54" s="9">
+        <v>1</v>
+      </c>
+      <c r="C54" s="9">
+        <v>1</v>
+      </c>
+      <c r="D54" s="9">
+        <v>1</v>
+      </c>
+      <c r="E54" s="9">
+        <v>1</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G54" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H54" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>64</v>
       </c>
@@ -2081,6 +2098,32 @@
         <v>1</v>
       </c>
       <c r="H55" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B56" s="2">
+        <v>0</v>
+      </c>
+      <c r="C56" s="2">
+        <v>1</v>
+      </c>
+      <c r="D56" s="2">
+        <v>0</v>
+      </c>
+      <c r="E56" s="2">
+        <v>1</v>
+      </c>
+      <c r="F56" s="2">
+        <v>1</v>
+      </c>
+      <c r="G56" s="2">
+        <v>1</v>
+      </c>
+      <c r="H56" t="s">
         <v>10</v>
       </c>
     </row>

--- a/forage_plant_location.xlsx
+++ b/forage_plant_location.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elinfalla/Dropbox/2020-21/_Imperial_MSc/_Project/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D90EC595-E4D6-2D4F-9E0C-351B1E5A55FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06F18EDB-EECC-6E40-8B69-790913DB3F6E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" xr2:uid="{B0640254-897E-44C3-B32E-9281997335F7}"/>
   </bookViews>
@@ -108,9 +108,6 @@
     <t>Caryophyllaceae</t>
   </si>
   <si>
-    <t>Celasteraceae</t>
-  </si>
-  <si>
     <t>Compositae</t>
   </si>
   <si>
@@ -232,6 +229,9 @@
   </si>
   <si>
     <t>Poaceae</t>
+  </si>
+  <si>
+    <t>Celastraceae</t>
   </si>
 </sst>
 </file>
@@ -294,7 +294,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -324,6 +324,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -646,11 +649,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{109D9CEA-5A8E-4E17-BF9C-87EBAB376EF1}">
-  <dimension ref="A1:H56"/>
+  <dimension ref="A1:L56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B57" sqref="B57"/>
+      <selection pane="bottomLeft" activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1037,7 +1040,7 @@
     </row>
     <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="B15" s="2">
         <v>1</v>
@@ -1063,7 +1066,7 @@
     </row>
     <row r="16" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16" s="4">
         <v>1</v>
@@ -1089,7 +1092,7 @@
     </row>
     <row r="17" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B17" s="2">
         <v>1</v>
@@ -1115,7 +1118,7 @@
     </row>
     <row r="18" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" s="2">
         <v>1</v>
@@ -1141,7 +1144,7 @@
     </row>
     <row r="19" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19" s="2">
         <v>1</v>
@@ -1167,7 +1170,7 @@
     </row>
     <row r="20" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20" s="9">
         <v>1</v>
@@ -1193,7 +1196,7 @@
     </row>
     <row r="21" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21" s="4">
         <v>1</v>
@@ -1219,7 +1222,7 @@
     </row>
     <row r="22" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B22" s="9">
         <v>1</v>
@@ -1245,7 +1248,7 @@
     </row>
     <row r="23" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23" s="4">
         <v>1</v>
@@ -1271,7 +1274,7 @@
     </row>
     <row r="24" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B24" s="9">
         <v>1</v>
@@ -1297,7 +1300,7 @@
     </row>
     <row r="25" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B25" s="9">
         <v>0</v>
@@ -1323,7 +1326,7 @@
     </row>
     <row r="26" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B26" s="9">
         <v>1</v>
@@ -1349,7 +1352,7 @@
     </row>
     <row r="27" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B27" s="2">
         <v>1</v>
@@ -1375,7 +1378,7 @@
     </row>
     <row r="28" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B28" s="9">
         <v>1</v>
@@ -1401,7 +1404,7 @@
     </row>
     <row r="29" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B29" s="9">
         <v>1</v>
@@ -1427,7 +1430,7 @@
     </row>
     <row r="30" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B30" s="9">
         <v>1</v>
@@ -1453,7 +1456,7 @@
     </row>
     <row r="31" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B31" s="4">
         <v>1</v>
@@ -1479,137 +1482,137 @@
     </row>
     <row r="32" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="2">
+        <v>1</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0</v>
+      </c>
+      <c r="E32" s="2">
+        <v>1</v>
+      </c>
+      <c r="F32" s="2">
+        <v>1</v>
+      </c>
+      <c r="G32" s="2">
+        <v>0</v>
+      </c>
+      <c r="H32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="2">
-        <v>1</v>
-      </c>
-      <c r="C32" s="2">
-        <v>0</v>
-      </c>
-      <c r="D32" s="2">
-        <v>0</v>
-      </c>
-      <c r="E32" s="2">
-        <v>1</v>
-      </c>
-      <c r="F32" s="2">
-        <v>1</v>
-      </c>
-      <c r="G32" s="2">
-        <v>0</v>
-      </c>
-      <c r="H32" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="8" t="s">
+      <c r="B33" s="9">
+        <v>0</v>
+      </c>
+      <c r="C33" s="9">
+        <v>0</v>
+      </c>
+      <c r="D33" s="9">
+        <v>0</v>
+      </c>
+      <c r="E33" s="9">
+        <v>1</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B33" s="9">
-        <v>0</v>
-      </c>
-      <c r="C33" s="9">
-        <v>0</v>
-      </c>
-      <c r="D33" s="9">
-        <v>0</v>
-      </c>
-      <c r="E33" s="9">
-        <v>1</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G33" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H33" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
+      <c r="B34" s="2">
+        <v>1</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0</v>
+      </c>
+      <c r="D34" s="2">
+        <v>0</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0</v>
+      </c>
+      <c r="F34" s="2">
+        <v>0</v>
+      </c>
+      <c r="G34" s="2">
+        <v>0</v>
+      </c>
+      <c r="H34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B34" s="2">
-        <v>1</v>
-      </c>
-      <c r="C34" s="2">
-        <v>0</v>
-      </c>
-      <c r="D34" s="2">
-        <v>0</v>
-      </c>
-      <c r="E34" s="2">
-        <v>0</v>
-      </c>
-      <c r="F34" s="2">
-        <v>0</v>
-      </c>
-      <c r="G34" s="2">
-        <v>0</v>
-      </c>
-      <c r="H34" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
+      <c r="B35" s="2">
+        <v>1</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0</v>
+      </c>
+      <c r="E35" s="2">
+        <v>1</v>
+      </c>
+      <c r="F35" s="2">
+        <v>1</v>
+      </c>
+      <c r="G35" s="2">
+        <v>0</v>
+      </c>
+      <c r="H35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B35" s="2">
-        <v>1</v>
-      </c>
-      <c r="C35" s="2">
-        <v>0</v>
-      </c>
-      <c r="D35" s="2">
-        <v>0</v>
-      </c>
-      <c r="E35" s="2">
-        <v>1</v>
-      </c>
-      <c r="F35" s="2">
-        <v>1</v>
-      </c>
-      <c r="G35" s="2">
-        <v>0</v>
-      </c>
-      <c r="H35" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="8" t="s">
+      <c r="B36" s="9">
+        <v>1</v>
+      </c>
+      <c r="C36" s="9">
+        <v>0</v>
+      </c>
+      <c r="D36" s="9">
+        <v>0</v>
+      </c>
+      <c r="E36" s="9">
+        <v>0</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="B36" s="9">
-        <v>1</v>
-      </c>
-      <c r="C36" s="9">
-        <v>0</v>
-      </c>
-      <c r="D36" s="9">
-        <v>0</v>
-      </c>
-      <c r="E36" s="9">
-        <v>0</v>
-      </c>
-      <c r="F36" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G36" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H36" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="B37" s="4">
         <v>1</v>
@@ -1633,330 +1636,331 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" s="2">
+        <v>0</v>
+      </c>
+      <c r="C38" s="2">
+        <v>1</v>
+      </c>
+      <c r="D38" s="2">
+        <v>1</v>
+      </c>
+      <c r="E38" s="2">
+        <v>0</v>
+      </c>
+      <c r="F38" s="2">
+        <v>1</v>
+      </c>
+      <c r="G38" s="2">
+        <v>1</v>
+      </c>
+      <c r="H38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B38" s="2">
-        <v>0</v>
-      </c>
-      <c r="C38" s="2">
-        <v>1</v>
-      </c>
-      <c r="D38" s="2">
-        <v>1</v>
-      </c>
-      <c r="E38" s="2">
-        <v>0</v>
-      </c>
-      <c r="F38" s="2">
-        <v>1</v>
-      </c>
-      <c r="G38" s="2">
-        <v>1</v>
-      </c>
-      <c r="H38" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="8" t="s">
+      <c r="B39" s="9">
+        <v>0</v>
+      </c>
+      <c r="C39" s="9">
+        <v>1</v>
+      </c>
+      <c r="D39" s="9">
+        <v>0</v>
+      </c>
+      <c r="E39" s="9">
+        <v>1</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H39" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B40" s="2">
+        <v>0</v>
+      </c>
+      <c r="C40" s="2">
+        <v>1</v>
+      </c>
+      <c r="D40" s="2">
+        <v>0</v>
+      </c>
+      <c r="E40" s="2">
+        <v>1</v>
+      </c>
+      <c r="F40" s="2">
+        <v>1</v>
+      </c>
+      <c r="G40" s="2">
+        <v>1</v>
+      </c>
+      <c r="H40" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B39" s="9">
-        <v>0</v>
-      </c>
-      <c r="C39" s="9">
-        <v>1</v>
-      </c>
-      <c r="D39" s="9">
-        <v>0</v>
-      </c>
-      <c r="E39" s="9">
-        <v>1</v>
-      </c>
-      <c r="F39" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G39" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H39" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
+      <c r="B41" s="2">
+        <v>1</v>
+      </c>
+      <c r="C41" s="2">
+        <v>1</v>
+      </c>
+      <c r="D41" s="2">
+        <v>1</v>
+      </c>
+      <c r="E41" s="2">
+        <v>1</v>
+      </c>
+      <c r="F41" s="2">
+        <v>1</v>
+      </c>
+      <c r="G41" s="2">
+        <v>1</v>
+      </c>
+      <c r="H41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A42" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B40" s="2">
-        <v>1</v>
-      </c>
-      <c r="C40" s="2">
-        <v>1</v>
-      </c>
-      <c r="D40" s="2">
-        <v>1</v>
-      </c>
-      <c r="E40" s="2">
-        <v>1</v>
-      </c>
-      <c r="F40" s="2">
-        <v>1</v>
-      </c>
-      <c r="G40" s="2">
-        <v>1</v>
-      </c>
-      <c r="H40" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="8" t="s">
+      <c r="B42" s="9">
+        <v>1</v>
+      </c>
+      <c r="C42" s="9">
+        <v>1</v>
+      </c>
+      <c r="D42" s="9">
+        <v>1</v>
+      </c>
+      <c r="E42" s="9">
+        <v>1</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H42" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B41" s="9">
-        <v>1</v>
-      </c>
-      <c r="C41" s="9">
-        <v>1</v>
-      </c>
-      <c r="D41" s="9">
-        <v>1</v>
-      </c>
-      <c r="E41" s="9">
-        <v>1</v>
-      </c>
-      <c r="F41" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G41" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H41" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
+      <c r="B43" s="2">
+        <v>0</v>
+      </c>
+      <c r="C43" s="2">
+        <v>1</v>
+      </c>
+      <c r="D43" s="2">
+        <v>0</v>
+      </c>
+      <c r="E43" s="2">
+        <v>1</v>
+      </c>
+      <c r="F43" s="2">
+        <v>1</v>
+      </c>
+      <c r="G43" s="2">
+        <v>1</v>
+      </c>
+      <c r="H43" t="s">
+        <v>10</v>
+      </c>
+      <c r="L43" s="11"/>
+    </row>
+    <row r="44" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A44" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B42" s="2">
-        <v>0</v>
-      </c>
-      <c r="C42" s="2">
-        <v>1</v>
-      </c>
-      <c r="D42" s="2">
-        <v>0</v>
-      </c>
-      <c r="E42" s="2">
-        <v>1</v>
-      </c>
-      <c r="F42" s="2">
-        <v>1</v>
-      </c>
-      <c r="G42" s="2">
-        <v>1</v>
-      </c>
-      <c r="H42" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A43" s="8" t="s">
+      <c r="B44" s="9">
+        <v>0</v>
+      </c>
+      <c r="C44" s="9">
+        <v>1</v>
+      </c>
+      <c r="D44" s="9">
+        <v>0</v>
+      </c>
+      <c r="E44" s="9">
+        <v>0</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H44" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B43" s="9">
-        <v>0</v>
-      </c>
-      <c r="C43" s="9">
-        <v>1</v>
-      </c>
-      <c r="D43" s="9">
-        <v>0</v>
-      </c>
-      <c r="E43" s="9">
-        <v>0</v>
-      </c>
-      <c r="F43" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G43" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H43" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
+      <c r="B45" s="2">
+        <v>1</v>
+      </c>
+      <c r="C45" s="2">
+        <v>0</v>
+      </c>
+      <c r="D45" s="2">
+        <v>0</v>
+      </c>
+      <c r="E45" s="2">
+        <v>0</v>
+      </c>
+      <c r="F45" s="2">
+        <v>0</v>
+      </c>
+      <c r="G45" s="2">
+        <v>0</v>
+      </c>
+      <c r="H45" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B44" s="2">
-        <v>1</v>
-      </c>
-      <c r="C44" s="2">
-        <v>0</v>
-      </c>
-      <c r="D44" s="2">
-        <v>0</v>
-      </c>
-      <c r="E44" s="2">
-        <v>0</v>
-      </c>
-      <c r="F44" s="2">
-        <v>0</v>
-      </c>
-      <c r="G44" s="2">
-        <v>0</v>
-      </c>
-      <c r="H44" t="s">
+      <c r="B46" s="4">
+        <v>1</v>
+      </c>
+      <c r="C46" s="2">
+        <v>0</v>
+      </c>
+      <c r="D46" s="2">
+        <v>0</v>
+      </c>
+      <c r="E46" s="2">
+        <v>0</v>
+      </c>
+      <c r="F46" s="2">
+        <v>0</v>
+      </c>
+      <c r="G46" s="2">
+        <v>0</v>
+      </c>
+      <c r="H46" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A47" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47" s="9">
+        <v>1</v>
+      </c>
+      <c r="C47" s="9">
+        <v>1</v>
+      </c>
+      <c r="D47" s="9">
+        <v>1</v>
+      </c>
+      <c r="E47" s="9">
+        <v>0</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G47" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H47" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48" s="2">
+        <v>1</v>
+      </c>
+      <c r="C48" s="2">
+        <v>0</v>
+      </c>
+      <c r="D48" s="2">
+        <v>0</v>
+      </c>
+      <c r="E48" s="2">
+        <v>0</v>
+      </c>
+      <c r="F48" s="2">
+        <v>0</v>
+      </c>
+      <c r="G48" s="2">
+        <v>0</v>
+      </c>
+      <c r="H48" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B45" s="4">
-        <v>1</v>
-      </c>
-      <c r="C45" s="2">
-        <v>0</v>
-      </c>
-      <c r="D45" s="2">
-        <v>0</v>
-      </c>
-      <c r="E45" s="2">
-        <v>0</v>
-      </c>
-      <c r="F45" s="2">
-        <v>0</v>
-      </c>
-      <c r="G45" s="2">
-        <v>0</v>
-      </c>
-      <c r="H45" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A46" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B46" s="9">
-        <v>1</v>
-      </c>
-      <c r="C46" s="9">
-        <v>1</v>
-      </c>
-      <c r="D46" s="9">
-        <v>1</v>
-      </c>
-      <c r="E46" s="9">
-        <v>0</v>
-      </c>
-      <c r="F46" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G46" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H46" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
+    <row r="49" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B47" s="2">
-        <v>1</v>
-      </c>
-      <c r="C47" s="2">
-        <v>0</v>
-      </c>
-      <c r="D47" s="2">
-        <v>0</v>
-      </c>
-      <c r="E47" s="2">
-        <v>0</v>
-      </c>
-      <c r="F47" s="2">
-        <v>0</v>
-      </c>
-      <c r="G47" s="2">
-        <v>0</v>
-      </c>
-      <c r="H47" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B48" s="4">
-        <v>1</v>
-      </c>
-      <c r="C48" s="4">
-        <v>1</v>
-      </c>
-      <c r="D48" s="4">
-        <v>1</v>
-      </c>
-      <c r="E48" s="4">
-        <v>1</v>
-      </c>
-      <c r="F48" s="4">
-        <v>1</v>
-      </c>
-      <c r="G48" s="4">
-        <v>1</v>
-      </c>
-      <c r="H48" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A49" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B49" s="9">
-        <v>1</v>
-      </c>
-      <c r="C49" s="9">
-        <v>1</v>
-      </c>
-      <c r="D49" s="9">
-        <v>1</v>
-      </c>
-      <c r="E49" s="9">
-        <v>0</v>
-      </c>
-      <c r="F49" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G49" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H49" s="10" t="s">
+      <c r="B49" s="4">
+        <v>1</v>
+      </c>
+      <c r="C49" s="4">
+        <v>1</v>
+      </c>
+      <c r="D49" s="4">
+        <v>1</v>
+      </c>
+      <c r="E49" s="4">
+        <v>1</v>
+      </c>
+      <c r="F49" s="4">
+        <v>1</v>
+      </c>
+      <c r="G49" s="4">
+        <v>1</v>
+      </c>
+      <c r="H49" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B50" s="9">
         <v>1</v>
       </c>
       <c r="C50" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D50" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50" s="9">
         <v>0</v>
@@ -1972,86 +1976,86 @@
       </c>
     </row>
     <row r="51" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B51" s="2">
-        <v>1</v>
-      </c>
-      <c r="C51" s="2">
-        <v>0</v>
-      </c>
-      <c r="D51" s="2">
-        <v>0</v>
-      </c>
-      <c r="E51" s="2">
-        <v>0</v>
-      </c>
-      <c r="F51" s="2">
-        <v>0</v>
-      </c>
-      <c r="G51" s="2">
-        <v>0</v>
-      </c>
-      <c r="H51" t="s">
-        <v>9</v>
+      <c r="A51" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B51" s="9">
+        <v>1</v>
+      </c>
+      <c r="C51" s="9">
+        <v>0</v>
+      </c>
+      <c r="D51" s="9">
+        <v>0</v>
+      </c>
+      <c r="E51" s="9">
+        <v>0</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H51" s="10" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B52" s="4">
-        <v>1</v>
-      </c>
-      <c r="C52" s="4">
-        <v>1</v>
+        <v>59</v>
+      </c>
+      <c r="B52" s="2">
+        <v>1</v>
+      </c>
+      <c r="C52" s="2">
+        <v>0</v>
       </c>
       <c r="D52" s="2">
-        <v>1</v>
-      </c>
-      <c r="E52" s="4">
-        <v>1</v>
-      </c>
-      <c r="F52" s="4">
-        <v>1</v>
-      </c>
-      <c r="G52" s="4">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E52" s="2">
+        <v>0</v>
+      </c>
+      <c r="F52" s="2">
+        <v>0</v>
+      </c>
+      <c r="G52" s="2">
+        <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A53" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B53" s="9">
-        <v>1</v>
-      </c>
-      <c r="C53" s="9">
-        <v>1</v>
-      </c>
-      <c r="D53" s="9">
-        <v>1</v>
-      </c>
-      <c r="E53" s="9">
-        <v>0</v>
-      </c>
-      <c r="F53" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G53" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H53" s="10" t="s">
+      <c r="A53" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B53" s="4">
+        <v>1</v>
+      </c>
+      <c r="C53" s="4">
+        <v>1</v>
+      </c>
+      <c r="D53" s="2">
+        <v>1</v>
+      </c>
+      <c r="E53" s="4">
+        <v>1</v>
+      </c>
+      <c r="F53" s="4">
+        <v>1</v>
+      </c>
+      <c r="G53" s="4">
+        <v>1</v>
+      </c>
+      <c r="H53" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B54" s="9">
         <v>1</v>
@@ -2063,7 +2067,7 @@
         <v>1</v>
       </c>
       <c r="E54" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" s="10" t="s">
         <v>9</v>
@@ -2076,46 +2080,46 @@
       </c>
     </row>
     <row r="55" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B55" s="2">
-        <v>1</v>
-      </c>
-      <c r="C55" s="2">
-        <v>1</v>
-      </c>
-      <c r="D55" s="2">
-        <v>1</v>
-      </c>
-      <c r="E55" s="2">
-        <v>0</v>
-      </c>
-      <c r="F55" s="2">
-        <v>1</v>
-      </c>
-      <c r="G55" s="2">
-        <v>1</v>
-      </c>
-      <c r="H55" t="s">
+      <c r="A55" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B55" s="9">
+        <v>1</v>
+      </c>
+      <c r="C55" s="9">
+        <v>1</v>
+      </c>
+      <c r="D55" s="9">
+        <v>1</v>
+      </c>
+      <c r="E55" s="9">
+        <v>1</v>
+      </c>
+      <c r="F55" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G55" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H55" s="10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B56" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C56" s="2">
         <v>1</v>
       </c>
       <c r="D56" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E56" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56" s="2">
         <v>1</v>
@@ -2128,7 +2132,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I51:L1048576">
+  <conditionalFormatting sqref="I52:L1048576 I40:L40">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>

--- a/forage_plant_location.xlsx
+++ b/forage_plant_location.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elinfalla/Dropbox/2020-21/_Imperial_MSc/_Project/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06F18EDB-EECC-6E40-8B69-790913DB3F6E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD9B17C-8FE7-124C-90DE-5EDDEAF73DF4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" xr2:uid="{B0640254-897E-44C3-B32E-9281997335F7}"/>
   </bookViews>
@@ -268,7 +268,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -278,6 +278,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -294,16 +300,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -327,6 +330,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -652,8 +662,8 @@
   <dimension ref="A1:L56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L43" sqref="L43"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -675,80 +685,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="9">
-        <v>1</v>
-      </c>
-      <c r="C2" s="9">
-        <v>0</v>
-      </c>
-      <c r="D2" s="9">
-        <v>0</v>
-      </c>
-      <c r="E2" s="9">
-        <v>0</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="10" t="s">
+      <c r="B2" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8">
+        <v>0</v>
+      </c>
+      <c r="D2" s="8">
+        <v>0</v>
+      </c>
+      <c r="E2" s="8">
+        <v>0</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="9">
-        <v>1</v>
-      </c>
-      <c r="C3" s="9">
-        <v>0</v>
-      </c>
-      <c r="D3" s="9">
-        <v>0</v>
-      </c>
-      <c r="E3" s="9">
-        <v>0</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="10" t="s">
+      <c r="B3" s="8">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8">
+        <v>0</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="9" t="s">
         <v>10</v>
       </c>
     </row>
@@ -805,80 +815,80 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="2">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2">
-        <v>1</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="B6" s="12">
+        <v>0</v>
+      </c>
+      <c r="C6" s="12">
+        <v>0</v>
+      </c>
+      <c r="D6" s="12">
+        <v>0</v>
+      </c>
+      <c r="E6" s="12">
+        <v>0</v>
+      </c>
+      <c r="F6" s="12">
+        <v>0</v>
+      </c>
+      <c r="G6" s="12">
+        <v>1</v>
+      </c>
+      <c r="H6" s="13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="9">
-        <v>1</v>
-      </c>
-      <c r="C7" s="9">
-        <v>0</v>
-      </c>
-      <c r="D7" s="9">
-        <v>0</v>
-      </c>
-      <c r="E7" s="9">
-        <v>0</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="10" t="s">
+      <c r="B7" s="8">
+        <v>1</v>
+      </c>
+      <c r="C7" s="8">
+        <v>0</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="9">
-        <v>1</v>
-      </c>
-      <c r="C8" s="9">
-        <v>0</v>
-      </c>
-      <c r="D8" s="9">
-        <v>0</v>
-      </c>
-      <c r="E8" s="9">
-        <v>0</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="10" t="s">
+      <c r="B8" s="8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="8">
+        <v>0</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="9" t="s">
         <v>10</v>
       </c>
     </row>
@@ -909,28 +919,28 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="9">
-        <v>1</v>
-      </c>
-      <c r="C10" s="9">
-        <v>1</v>
-      </c>
-      <c r="D10" s="9">
-        <v>1</v>
-      </c>
-      <c r="E10" s="9">
-        <v>0</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" s="10" t="s">
+      <c r="B10" s="8">
+        <v>1</v>
+      </c>
+      <c r="C10" s="8">
+        <v>1</v>
+      </c>
+      <c r="D10" s="8">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8">
+        <v>0</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="9" t="s">
         <v>10</v>
       </c>
     </row>
@@ -944,16 +954,16 @@
       <c r="C11" s="2">
         <v>0</v>
       </c>
-      <c r="D11" s="4">
-        <v>0</v>
-      </c>
-      <c r="E11" s="4">
-        <v>1</v>
-      </c>
-      <c r="F11" s="4">
-        <v>1</v>
-      </c>
-      <c r="G11" s="4">
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3">
         <v>0</v>
       </c>
       <c r="H11" t="s">
@@ -987,28 +997,28 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="9">
-        <v>1</v>
-      </c>
-      <c r="C13" s="9">
-        <v>0</v>
-      </c>
-      <c r="D13" s="9">
-        <v>0</v>
-      </c>
-      <c r="E13" s="9">
-        <v>0</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H13" s="10" t="s">
+      <c r="B13" s="8">
+        <v>1</v>
+      </c>
+      <c r="C13" s="8">
+        <v>0</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0</v>
+      </c>
+      <c r="E13" s="8">
+        <v>0</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="9" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1068,22 +1078,22 @@
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="4">
-        <v>1</v>
-      </c>
-      <c r="C16" s="4">
+      <c r="B16" s="3">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3">
         <v>1</v>
       </c>
       <c r="D16" s="2">
         <v>1</v>
       </c>
-      <c r="E16" s="4">
-        <v>1</v>
-      </c>
-      <c r="F16" s="4">
-        <v>1</v>
-      </c>
-      <c r="G16" s="4">
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3">
         <v>1</v>
       </c>
       <c r="H16" t="s">
@@ -1165,32 +1175,32 @@
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="9">
-        <v>1</v>
-      </c>
-      <c r="C20" s="9">
-        <v>0</v>
-      </c>
-      <c r="D20" s="9">
-        <v>0</v>
-      </c>
-      <c r="E20" s="9">
-        <v>0</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H20" s="10" t="s">
+      <c r="B20" s="8">
+        <v>1</v>
+      </c>
+      <c r="C20" s="8">
+        <v>0</v>
+      </c>
+      <c r="D20" s="8">
+        <v>0</v>
+      </c>
+      <c r="E20" s="8">
+        <v>0</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" s="9" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1198,7 +1208,7 @@
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="3">
         <v>1</v>
       </c>
       <c r="C21" s="2">
@@ -1207,13 +1217,13 @@
       <c r="D21" s="2">
         <v>0</v>
       </c>
-      <c r="E21" s="4">
-        <v>1</v>
-      </c>
-      <c r="F21" s="4">
-        <v>1</v>
-      </c>
-      <c r="G21" s="4">
+      <c r="E21" s="3">
+        <v>1</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1</v>
+      </c>
+      <c r="G21" s="3">
         <v>0</v>
       </c>
       <c r="H21" t="s">
@@ -1221,28 +1231,28 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="9">
-        <v>1</v>
-      </c>
-      <c r="C22" s="9">
-        <v>1</v>
-      </c>
-      <c r="D22" s="9">
-        <v>1</v>
-      </c>
-      <c r="E22" s="9">
-        <v>0</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H22" s="10" t="s">
+      <c r="B22" s="8">
+        <v>1</v>
+      </c>
+      <c r="C22" s="8">
+        <v>1</v>
+      </c>
+      <c r="D22" s="8">
+        <v>1</v>
+      </c>
+      <c r="E22" s="8">
+        <v>0</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H22" s="9" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1250,22 +1260,22 @@
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="4">
-        <v>1</v>
-      </c>
-      <c r="C23" s="4">
-        <v>1</v>
-      </c>
-      <c r="D23" s="4">
-        <v>1</v>
-      </c>
-      <c r="E23" s="4">
-        <v>1</v>
-      </c>
-      <c r="F23" s="4">
-        <v>1</v>
-      </c>
-      <c r="G23" s="4">
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3">
+        <v>1</v>
+      </c>
+      <c r="D23" s="3">
+        <v>1</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1</v>
+      </c>
+      <c r="G23" s="3">
         <v>1</v>
       </c>
       <c r="H23" t="s">
@@ -1273,80 +1283,80 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="9">
-        <v>1</v>
-      </c>
-      <c r="C24" s="9">
-        <v>0</v>
-      </c>
-      <c r="D24" s="9">
-        <v>0</v>
-      </c>
-      <c r="E24" s="9">
-        <v>0</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H24" s="10" t="s">
+      <c r="B24" s="8">
+        <v>1</v>
+      </c>
+      <c r="C24" s="8">
+        <v>0</v>
+      </c>
+      <c r="D24" s="8">
+        <v>0</v>
+      </c>
+      <c r="E24" s="8">
+        <v>0</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H24" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="9">
-        <v>0</v>
-      </c>
-      <c r="C25" s="9">
-        <v>0</v>
-      </c>
-      <c r="D25" s="9">
-        <v>0</v>
-      </c>
-      <c r="E25" s="9">
-        <v>1</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H25" s="10" t="s">
+      <c r="B25" s="8">
+        <v>0</v>
+      </c>
+      <c r="C25" s="8">
+        <v>0</v>
+      </c>
+      <c r="D25" s="8">
+        <v>0</v>
+      </c>
+      <c r="E25" s="8">
+        <v>1</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H25" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="9">
-        <v>1</v>
-      </c>
-      <c r="C26" s="9">
-        <v>1</v>
-      </c>
-      <c r="D26" s="9">
-        <v>1</v>
-      </c>
-      <c r="E26" s="9">
-        <v>1</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H26" s="10" t="s">
+      <c r="B26" s="8">
+        <v>1</v>
+      </c>
+      <c r="C26" s="8">
+        <v>1</v>
+      </c>
+      <c r="D26" s="8">
+        <v>1</v>
+      </c>
+      <c r="E26" s="8">
+        <v>1</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H26" s="9" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1377,80 +1387,80 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="9">
-        <v>1</v>
-      </c>
-      <c r="C28" s="9">
-        <v>0</v>
-      </c>
-      <c r="D28" s="9">
-        <v>0</v>
-      </c>
-      <c r="E28" s="9">
-        <v>0</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H28" s="10" t="s">
+      <c r="B28" s="8">
+        <v>1</v>
+      </c>
+      <c r="C28" s="8">
+        <v>0</v>
+      </c>
+      <c r="D28" s="8">
+        <v>0</v>
+      </c>
+      <c r="E28" s="8">
+        <v>0</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H28" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="9">
-        <v>1</v>
-      </c>
-      <c r="C29" s="9">
-        <v>1</v>
-      </c>
-      <c r="D29" s="9">
-        <v>0</v>
-      </c>
-      <c r="E29" s="9">
-        <v>1</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G29" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H29" s="10" t="s">
+      <c r="B29" s="8">
+        <v>1</v>
+      </c>
+      <c r="C29" s="8">
+        <v>1</v>
+      </c>
+      <c r="D29" s="8">
+        <v>0</v>
+      </c>
+      <c r="E29" s="8">
+        <v>1</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H29" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="9">
-        <v>1</v>
-      </c>
-      <c r="C30" s="9">
-        <v>0</v>
-      </c>
-      <c r="D30" s="9">
-        <v>0</v>
-      </c>
-      <c r="E30" s="9">
-        <v>1</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H30" s="10" t="s">
+      <c r="B30" s="8">
+        <v>1</v>
+      </c>
+      <c r="C30" s="8">
+        <v>0</v>
+      </c>
+      <c r="D30" s="8">
+        <v>0</v>
+      </c>
+      <c r="E30" s="8">
+        <v>1</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H30" s="9" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1458,22 +1468,22 @@
       <c r="A31" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="4">
-        <v>1</v>
-      </c>
-      <c r="C31" s="4">
-        <v>1</v>
-      </c>
-      <c r="D31" s="4">
-        <v>1</v>
-      </c>
-      <c r="E31" s="4">
-        <v>1</v>
-      </c>
-      <c r="F31" s="4">
-        <v>1</v>
-      </c>
-      <c r="G31" s="4">
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>1</v>
+      </c>
+      <c r="D31" s="3">
+        <v>1</v>
+      </c>
+      <c r="E31" s="3">
+        <v>1</v>
+      </c>
+      <c r="F31" s="3">
+        <v>1</v>
+      </c>
+      <c r="G31" s="3">
         <v>1</v>
       </c>
       <c r="H31" t="s">
@@ -1507,28 +1517,28 @@
       </c>
     </row>
     <row r="33" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="9">
-        <v>0</v>
-      </c>
-      <c r="C33" s="9">
-        <v>0</v>
-      </c>
-      <c r="D33" s="9">
-        <v>0</v>
-      </c>
-      <c r="E33" s="9">
-        <v>1</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G33" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H33" s="10" t="s">
+      <c r="B33" s="8">
+        <v>0</v>
+      </c>
+      <c r="C33" s="8">
+        <v>0</v>
+      </c>
+      <c r="D33" s="8">
+        <v>0</v>
+      </c>
+      <c r="E33" s="8">
+        <v>1</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H33" s="9" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1585,28 +1595,28 @@
       </c>
     </row>
     <row r="36" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B36" s="9">
-        <v>1</v>
-      </c>
-      <c r="C36" s="9">
-        <v>0</v>
-      </c>
-      <c r="D36" s="9">
-        <v>0</v>
-      </c>
-      <c r="E36" s="9">
-        <v>0</v>
-      </c>
-      <c r="F36" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G36" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H36" s="10" t="s">
+      <c r="B36" s="8">
+        <v>1</v>
+      </c>
+      <c r="C36" s="8">
+        <v>0</v>
+      </c>
+      <c r="D36" s="8">
+        <v>0</v>
+      </c>
+      <c r="E36" s="8">
+        <v>0</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H36" s="9" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1614,10 +1624,10 @@
       <c r="A37" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B37" s="4">
-        <v>1</v>
-      </c>
-      <c r="C37" s="4">
+      <c r="B37" s="3">
+        <v>1</v>
+      </c>
+      <c r="C37" s="3">
         <v>1</v>
       </c>
       <c r="D37" s="2">
@@ -1663,28 +1673,28 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B39" s="9">
-        <v>0</v>
-      </c>
-      <c r="C39" s="9">
-        <v>1</v>
-      </c>
-      <c r="D39" s="9">
-        <v>0</v>
-      </c>
-      <c r="E39" s="9">
-        <v>1</v>
-      </c>
-      <c r="F39" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G39" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H39" s="10" t="s">
+      <c r="B39" s="8">
+        <v>0</v>
+      </c>
+      <c r="C39" s="8">
+        <v>1</v>
+      </c>
+      <c r="D39" s="8">
+        <v>0</v>
+      </c>
+      <c r="E39" s="8">
+        <v>1</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H39" s="9" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1741,28 +1751,28 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B42" s="9">
-        <v>1</v>
-      </c>
-      <c r="C42" s="9">
-        <v>1</v>
-      </c>
-      <c r="D42" s="9">
-        <v>1</v>
-      </c>
-      <c r="E42" s="9">
-        <v>1</v>
-      </c>
-      <c r="F42" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G42" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H42" s="10" t="s">
+      <c r="B42" s="8">
+        <v>1</v>
+      </c>
+      <c r="C42" s="8">
+        <v>1</v>
+      </c>
+      <c r="D42" s="8">
+        <v>1</v>
+      </c>
+      <c r="E42" s="8">
+        <v>1</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H42" s="9" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1791,31 +1801,31 @@
       <c r="H43" t="s">
         <v>10</v>
       </c>
-      <c r="L43" s="11"/>
+      <c r="L43" s="10"/>
     </row>
     <row r="44" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="8" t="s">
+      <c r="A44" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B44" s="9">
-        <v>0</v>
-      </c>
-      <c r="C44" s="9">
-        <v>1</v>
-      </c>
-      <c r="D44" s="9">
-        <v>0</v>
-      </c>
-      <c r="E44" s="9">
-        <v>0</v>
-      </c>
-      <c r="F44" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G44" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H44" s="10" t="s">
+      <c r="B44" s="8">
+        <v>0</v>
+      </c>
+      <c r="C44" s="8">
+        <v>1</v>
+      </c>
+      <c r="D44" s="8">
+        <v>0</v>
+      </c>
+      <c r="E44" s="8">
+        <v>0</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H44" s="9" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1849,7 +1859,7 @@
       <c r="A46" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B46" s="4">
+      <c r="B46" s="3">
         <v>1</v>
       </c>
       <c r="C46" s="2">
@@ -1872,28 +1882,28 @@
       </c>
     </row>
     <row r="47" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A47" s="8" t="s">
+      <c r="A47" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B47" s="9">
-        <v>1</v>
-      </c>
-      <c r="C47" s="9">
-        <v>1</v>
-      </c>
-      <c r="D47" s="9">
-        <v>1</v>
-      </c>
-      <c r="E47" s="9">
-        <v>0</v>
-      </c>
-      <c r="F47" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G47" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H47" s="10" t="s">
+      <c r="B47" s="8">
+        <v>1</v>
+      </c>
+      <c r="C47" s="8">
+        <v>1</v>
+      </c>
+      <c r="D47" s="8">
+        <v>1</v>
+      </c>
+      <c r="E47" s="8">
+        <v>0</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H47" s="9" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1927,22 +1937,22 @@
       <c r="A49" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B49" s="4">
-        <v>1</v>
-      </c>
-      <c r="C49" s="4">
-        <v>1</v>
-      </c>
-      <c r="D49" s="4">
-        <v>1</v>
-      </c>
-      <c r="E49" s="4">
-        <v>1</v>
-      </c>
-      <c r="F49" s="4">
-        <v>1</v>
-      </c>
-      <c r="G49" s="4">
+      <c r="B49" s="3">
+        <v>1</v>
+      </c>
+      <c r="C49" s="3">
+        <v>1</v>
+      </c>
+      <c r="D49" s="3">
+        <v>1</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1</v>
+      </c>
+      <c r="F49" s="3">
+        <v>1</v>
+      </c>
+      <c r="G49" s="3">
         <v>1</v>
       </c>
       <c r="H49" t="s">
@@ -1950,54 +1960,54 @@
       </c>
     </row>
     <row r="50" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A50" s="8" t="s">
+      <c r="A50" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B50" s="9">
-        <v>1</v>
-      </c>
-      <c r="C50" s="9">
-        <v>1</v>
-      </c>
-      <c r="D50" s="9">
-        <v>1</v>
-      </c>
-      <c r="E50" s="9">
-        <v>0</v>
-      </c>
-      <c r="F50" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G50" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H50" s="10" t="s">
+      <c r="B50" s="8">
+        <v>1</v>
+      </c>
+      <c r="C50" s="8">
+        <v>1</v>
+      </c>
+      <c r="D50" s="8">
+        <v>1</v>
+      </c>
+      <c r="E50" s="8">
+        <v>0</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H50" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A51" s="8" t="s">
+      <c r="A51" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B51" s="9">
-        <v>1</v>
-      </c>
-      <c r="C51" s="9">
-        <v>0</v>
-      </c>
-      <c r="D51" s="9">
-        <v>0</v>
-      </c>
-      <c r="E51" s="9">
-        <v>0</v>
-      </c>
-      <c r="F51" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G51" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H51" s="10" t="s">
+      <c r="B51" s="8">
+        <v>1</v>
+      </c>
+      <c r="C51" s="8">
+        <v>0</v>
+      </c>
+      <c r="D51" s="8">
+        <v>0</v>
+      </c>
+      <c r="E51" s="8">
+        <v>0</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G51" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H51" s="9" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2031,22 +2041,22 @@
       <c r="A53" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B53" s="4">
-        <v>1</v>
-      </c>
-      <c r="C53" s="4">
+      <c r="B53" s="3">
+        <v>1</v>
+      </c>
+      <c r="C53" s="3">
         <v>1</v>
       </c>
       <c r="D53" s="2">
         <v>1</v>
       </c>
-      <c r="E53" s="4">
-        <v>1</v>
-      </c>
-      <c r="F53" s="4">
-        <v>1</v>
-      </c>
-      <c r="G53" s="4">
+      <c r="E53" s="3">
+        <v>1</v>
+      </c>
+      <c r="F53" s="3">
+        <v>1</v>
+      </c>
+      <c r="G53" s="3">
         <v>1</v>
       </c>
       <c r="H53" t="s">
@@ -2054,54 +2064,54 @@
       </c>
     </row>
     <row r="54" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A54" s="8" t="s">
+      <c r="A54" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B54" s="9">
-        <v>1</v>
-      </c>
-      <c r="C54" s="9">
-        <v>1</v>
-      </c>
-      <c r="D54" s="9">
-        <v>1</v>
-      </c>
-      <c r="E54" s="9">
-        <v>0</v>
-      </c>
-      <c r="F54" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G54" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H54" s="10" t="s">
+      <c r="B54" s="8">
+        <v>1</v>
+      </c>
+      <c r="C54" s="8">
+        <v>1</v>
+      </c>
+      <c r="D54" s="8">
+        <v>1</v>
+      </c>
+      <c r="E54" s="8">
+        <v>0</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G54" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H54" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A55" s="8" t="s">
+      <c r="A55" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B55" s="9">
-        <v>1</v>
-      </c>
-      <c r="C55" s="9">
-        <v>1</v>
-      </c>
-      <c r="D55" s="9">
-        <v>1</v>
-      </c>
-      <c r="E55" s="9">
-        <v>1</v>
-      </c>
-      <c r="F55" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G55" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H55" s="10" t="s">
+      <c r="B55" s="8">
+        <v>1</v>
+      </c>
+      <c r="C55" s="8">
+        <v>1</v>
+      </c>
+      <c r="D55" s="8">
+        <v>1</v>
+      </c>
+      <c r="E55" s="8">
+        <v>1</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G55" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H55" s="9" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2132,7 +2142,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I52:L1048576 I40:L40">
+  <conditionalFormatting sqref="I40:L40 I54:L1048576 J53:L53 I52:L52">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>

--- a/forage_plant_location.xlsx
+++ b/forage_plant_location.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elinfalla/Dropbox/2020-21/_Imperial_MSc/_Project/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD9B17C-8FE7-124C-90DE-5EDDEAF73DF4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4949605-7E50-504E-A022-69FB488E393D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" xr2:uid="{B0640254-897E-44C3-B32E-9281997335F7}"/>
   </bookViews>
@@ -238,7 +238,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,6 +266,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -300,7 +306,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -337,6 +343,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -662,8 +674,8 @@
   <dimension ref="A1:L56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6:H6"/>
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -671,7 +683,7 @@
     <col min="1" max="1" width="20.1640625" customWidth="1"/>
     <col min="2" max="8" width="12.6640625" customWidth="1"/>
     <col min="9" max="9" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17" customWidth="1"/>
     <col min="11" max="11" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.5" bestFit="1" customWidth="1"/>
@@ -684,7 +696,7 @@
     <col min="20" max="20" width="6.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -709,8 +721,9 @@
       <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="J1" s="15"/>
+    </row>
+    <row r="2" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>8</v>
       </c>
@@ -735,8 +748,9 @@
       <c r="H2" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="J2" s="14"/>
+    </row>
+    <row r="3" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>11</v>
       </c>
@@ -761,8 +775,9 @@
       <c r="H3" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="J3" s="14"/>
+    </row>
+    <row r="4" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -787,8 +802,9 @@
       <c r="H4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="J4" s="14"/>
+    </row>
+    <row r="5" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -813,8 +829,9 @@
       <c r="H5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J5" s="14"/>
+    </row>
+    <row r="6" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>14</v>
       </c>
@@ -839,8 +856,9 @@
       <c r="H6" s="13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="J6" s="14"/>
+    </row>
+    <row r="7" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>16</v>
       </c>
@@ -865,8 +883,9 @@
       <c r="H7" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="J7" s="14"/>
+    </row>
+    <row r="8" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>17</v>
       </c>
@@ -891,8 +910,9 @@
       <c r="H8" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="J8" s="14"/>
+    </row>
+    <row r="9" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -917,8 +937,9 @@
       <c r="H9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="J9" s="14"/>
+    </row>
+    <row r="10" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>19</v>
       </c>
@@ -943,8 +964,9 @@
       <c r="H10" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="J10" s="14"/>
+    </row>
+    <row r="11" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -969,8 +991,9 @@
       <c r="H11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="J11" s="14"/>
+    </row>
+    <row r="12" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
@@ -995,8 +1018,9 @@
       <c r="H12" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="J12" s="14"/>
+    </row>
+    <row r="13" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>22</v>
       </c>
@@ -1021,8 +1045,9 @@
       <c r="H13" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="J13" s="14"/>
+    </row>
+    <row r="14" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
@@ -1047,8 +1072,9 @@
       <c r="H14" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="J14" s="14"/>
+    </row>
+    <row r="15" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>65</v>
       </c>
@@ -1073,8 +1099,9 @@
       <c r="H15" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="J15" s="14"/>
+    </row>
+    <row r="16" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
@@ -1099,8 +1126,9 @@
       <c r="H16" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="J16" s="14"/>
+    </row>
+    <row r="17" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
@@ -1125,8 +1153,9 @@
       <c r="H17" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="J17" s="14"/>
+    </row>
+    <row r="18" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
@@ -1151,8 +1180,9 @@
       <c r="H18" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="J18" s="14"/>
+    </row>
+    <row r="19" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
@@ -1177,8 +1207,9 @@
       <c r="H19" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="J19" s="14"/>
+    </row>
+    <row r="20" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>28</v>
       </c>
@@ -1203,8 +1234,9 @@
       <c r="H20" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="J20" s="14"/>
+    </row>
+    <row r="21" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
@@ -1229,8 +1261,9 @@
       <c r="H21" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="J21" s="14"/>
+    </row>
+    <row r="22" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>30</v>
       </c>
@@ -1255,8 +1288,9 @@
       <c r="H22" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="J22" s="14"/>
+    </row>
+    <row r="23" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
@@ -1281,8 +1315,9 @@
       <c r="H23" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="J23" s="14"/>
+    </row>
+    <row r="24" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>32</v>
       </c>
@@ -1307,8 +1342,9 @@
       <c r="H24" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="J24" s="14"/>
+    </row>
+    <row r="25" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>33</v>
       </c>
@@ -1333,8 +1369,9 @@
       <c r="H25" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="J25" s="14"/>
+    </row>
+    <row r="26" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>34</v>
       </c>
@@ -1359,8 +1396,9 @@
       <c r="H26" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="J26" s="14"/>
+    </row>
+    <row r="27" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>35</v>
       </c>
@@ -1385,8 +1423,9 @@
       <c r="H27" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="J27" s="14"/>
+    </row>
+    <row r="28" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
         <v>36</v>
       </c>
@@ -1411,8 +1450,9 @@
       <c r="H28" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="J28" s="14"/>
+    </row>
+    <row r="29" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
         <v>37</v>
       </c>
@@ -1437,8 +1477,9 @@
       <c r="H29" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="J29" s="14"/>
+    </row>
+    <row r="30" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>38</v>
       </c>
@@ -1463,8 +1504,9 @@
       <c r="H30" s="9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="J30" s="14"/>
+    </row>
+    <row r="31" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>39</v>
       </c>
@@ -1489,8 +1531,9 @@
       <c r="H31" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="J31" s="14"/>
+    </row>
+    <row r="32" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>40</v>
       </c>
@@ -1515,6 +1558,7 @@
       <c r="H32" t="s">
         <v>10</v>
       </c>
+      <c r="J32" s="14"/>
     </row>
     <row r="33" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
@@ -1541,6 +1585,7 @@
       <c r="H33" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="J33" s="14"/>
     </row>
     <row r="34" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
@@ -1567,6 +1612,7 @@
       <c r="H34" t="s">
         <v>10</v>
       </c>
+      <c r="J34" s="14"/>
     </row>
     <row r="35" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
@@ -1593,6 +1639,7 @@
       <c r="H35" t="s">
         <v>10</v>
       </c>
+      <c r="J35" s="14"/>
     </row>
     <row r="36" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
@@ -1619,6 +1666,7 @@
       <c r="H36" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="J36" s="14"/>
     </row>
     <row r="37" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
@@ -1645,6 +1693,7 @@
       <c r="H37" t="s">
         <v>15</v>
       </c>
+      <c r="J37" s="14"/>
     </row>
     <row r="38" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
@@ -1671,6 +1720,7 @@
       <c r="H38" t="s">
         <v>10</v>
       </c>
+      <c r="J38" s="14"/>
     </row>
     <row r="39" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
@@ -1697,6 +1747,7 @@
       <c r="H39" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="J39" s="14"/>
     </row>
     <row r="40" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
@@ -1723,6 +1774,7 @@
       <c r="H40" t="s">
         <v>10</v>
       </c>
+      <c r="J40" s="14"/>
     </row>
     <row r="41" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
@@ -1749,6 +1801,7 @@
       <c r="H41" t="s">
         <v>10</v>
       </c>
+      <c r="J41" s="14"/>
     </row>
     <row r="42" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
@@ -1775,6 +1828,7 @@
       <c r="H42" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="J42" s="14"/>
     </row>
     <row r="43" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
@@ -1801,6 +1855,7 @@
       <c r="H43" t="s">
         <v>10</v>
       </c>
+      <c r="J43" s="14"/>
       <c r="L43" s="10"/>
     </row>
     <row r="44" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -1828,6 +1883,7 @@
       <c r="H44" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="J44" s="14"/>
     </row>
     <row r="45" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
@@ -1854,6 +1910,7 @@
       <c r="H45" t="s">
         <v>15</v>
       </c>
+      <c r="J45" s="15"/>
     </row>
     <row r="46" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
@@ -1880,6 +1937,7 @@
       <c r="H46" t="s">
         <v>10</v>
       </c>
+      <c r="J46" s="14"/>
     </row>
     <row r="47" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
@@ -1906,6 +1964,7 @@
       <c r="H47" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="J47" s="14"/>
     </row>
     <row r="48" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
@@ -1932,8 +1991,9 @@
       <c r="H48" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="J48" s="14"/>
+    </row>
+    <row r="49" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>56</v>
       </c>
@@ -1958,8 +2018,9 @@
       <c r="H49" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="J49" s="14"/>
+    </row>
+    <row r="50" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
         <v>57</v>
       </c>
@@ -1984,8 +2045,9 @@
       <c r="H50" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="J50" s="15"/>
+    </row>
+    <row r="51" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
         <v>58</v>
       </c>
@@ -2011,7 +2073,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>59</v>
       </c>
@@ -2037,7 +2099,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>60</v>
       </c>
@@ -2063,7 +2125,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
         <v>61</v>
       </c>
@@ -2089,7 +2151,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
         <v>62</v>
       </c>
@@ -2115,7 +2177,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>63</v>
       </c>
@@ -2142,7 +2204,10 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I40:L40 I54:L1048576 J53:L53 I52:L52">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="J2:J50">
+    <sortCondition ref="J1:J50"/>
+  </sortState>
+  <conditionalFormatting sqref="I40 I54:L1048576 J53:L53 I52:L52 K40:L40">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>

--- a/forage_plant_location.xlsx
+++ b/forage_plant_location.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elinfalla/Dropbox/2020-21/_Imperial_MSc/_Project/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4949605-7E50-504E-A022-69FB488E393D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD3853B-396C-C14A-80AC-A2C3C72CB6B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" xr2:uid="{B0640254-897E-44C3-B32E-9281997335F7}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="forage_plant_location" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="67">
   <si>
     <t>plantfamily</t>
   </si>
@@ -232,6 +231,9 @@
   </si>
   <si>
     <t>Celastraceae</t>
+  </si>
+  <si>
+    <t>Crops</t>
   </si>
 </sst>
 </file>
@@ -671,11 +673,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{109D9CEA-5A8E-4E17-BF9C-87EBAB376EF1}">
-  <dimension ref="A1:L56"/>
+  <dimension ref="A1:L57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1184,172 +1186,172 @@
     </row>
     <row r="19" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0</v>
+      </c>
+      <c r="H19" t="s">
+        <v>10</v>
+      </c>
+      <c r="J19" s="14"/>
+    </row>
+    <row r="20" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="2">
-        <v>1</v>
-      </c>
-      <c r="C19" s="2">
-        <v>1</v>
-      </c>
-      <c r="D19" s="2">
-        <v>1</v>
-      </c>
-      <c r="E19" s="2">
-        <v>1</v>
-      </c>
-      <c r="F19" s="2">
-        <v>1</v>
-      </c>
-      <c r="G19" s="2">
-        <v>1</v>
-      </c>
-      <c r="H19" t="s">
-        <v>10</v>
-      </c>
-      <c r="J19" s="14"/>
-    </row>
-    <row r="20" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="7" t="s">
+      <c r="B20" s="2">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1</v>
+      </c>
+      <c r="G20" s="2">
+        <v>1</v>
+      </c>
+      <c r="H20" t="s">
+        <v>10</v>
+      </c>
+      <c r="J20" s="14"/>
+    </row>
+    <row r="21" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="8">
-        <v>1</v>
-      </c>
-      <c r="C20" s="8">
-        <v>0</v>
-      </c>
-      <c r="D20" s="8">
-        <v>0</v>
-      </c>
-      <c r="E20" s="8">
-        <v>0</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="J20" s="14"/>
-    </row>
-    <row r="21" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="8">
+        <v>1</v>
+      </c>
+      <c r="C21" s="8">
+        <v>0</v>
+      </c>
+      <c r="D21" s="8">
+        <v>0</v>
+      </c>
+      <c r="E21" s="8">
+        <v>0</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J21" s="14"/>
+    </row>
+    <row r="22" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="3">
-        <v>1</v>
-      </c>
-      <c r="C21" s="2">
-        <v>0</v>
-      </c>
-      <c r="D21" s="2">
-        <v>0</v>
-      </c>
-      <c r="E21" s="3">
-        <v>1</v>
-      </c>
-      <c r="F21" s="3">
-        <v>1</v>
-      </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
-      <c r="H21" t="s">
+      <c r="B22" s="3">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" t="s">
         <v>15</v>
       </c>
-      <c r="J21" s="14"/>
-    </row>
-    <row r="22" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="7" t="s">
+      <c r="J22" s="14"/>
+    </row>
+    <row r="23" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="8">
-        <v>1</v>
-      </c>
-      <c r="C22" s="8">
-        <v>1</v>
-      </c>
-      <c r="D22" s="8">
-        <v>1</v>
-      </c>
-      <c r="E22" s="8">
-        <v>0</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="J22" s="14"/>
-    </row>
-    <row r="23" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+      <c r="B23" s="8">
+        <v>1</v>
+      </c>
+      <c r="C23" s="8">
+        <v>1</v>
+      </c>
+      <c r="D23" s="8">
+        <v>1</v>
+      </c>
+      <c r="E23" s="8">
+        <v>0</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J23" s="14"/>
+    </row>
+    <row r="24" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="3">
-        <v>1</v>
-      </c>
-      <c r="C23" s="3">
-        <v>1</v>
-      </c>
-      <c r="D23" s="3">
-        <v>1</v>
-      </c>
-      <c r="E23" s="3">
-        <v>1</v>
-      </c>
-      <c r="F23" s="3">
-        <v>1</v>
-      </c>
-      <c r="G23" s="3">
-        <v>1</v>
-      </c>
-      <c r="H23" t="s">
-        <v>10</v>
-      </c>
-      <c r="J23" s="14"/>
-    </row>
-    <row r="24" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24" s="8">
-        <v>1</v>
-      </c>
-      <c r="C24" s="8">
-        <v>0</v>
-      </c>
-      <c r="D24" s="8">
-        <v>0</v>
-      </c>
-      <c r="E24" s="8">
-        <v>0</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H24" s="9" t="s">
+      <c r="B24" s="3">
+        <v>1</v>
+      </c>
+      <c r="C24" s="3">
+        <v>1</v>
+      </c>
+      <c r="D24" s="3">
+        <v>1</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1</v>
+      </c>
+      <c r="G24" s="3">
+        <v>1</v>
+      </c>
+      <c r="H24" t="s">
         <v>10</v>
       </c>
       <c r="J24" s="14"/>
     </row>
     <row r="25" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B25" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" s="8">
         <v>0</v>
@@ -1358,7 +1360,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" s="9" t="s">
         <v>9</v>
@@ -1373,100 +1375,100 @@
     </row>
     <row r="26" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="8">
+        <v>0</v>
+      </c>
+      <c r="C26" s="8">
+        <v>0</v>
+      </c>
+      <c r="D26" s="8">
+        <v>0</v>
+      </c>
+      <c r="E26" s="8">
+        <v>1</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J26" s="14"/>
+    </row>
+    <row r="27" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="8">
-        <v>1</v>
-      </c>
-      <c r="C26" s="8">
-        <v>1</v>
-      </c>
-      <c r="D26" s="8">
-        <v>1</v>
-      </c>
-      <c r="E26" s="8">
-        <v>1</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="J26" s="14"/>
-    </row>
-    <row r="27" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+      <c r="B27" s="8">
+        <v>1</v>
+      </c>
+      <c r="C27" s="8">
+        <v>1</v>
+      </c>
+      <c r="D27" s="8">
+        <v>1</v>
+      </c>
+      <c r="E27" s="8">
+        <v>1</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J27" s="14"/>
+    </row>
+    <row r="28" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="2">
-        <v>1</v>
-      </c>
-      <c r="C27" s="2">
-        <v>0</v>
-      </c>
-      <c r="D27" s="2">
-        <v>0</v>
-      </c>
-      <c r="E27" s="2">
-        <v>0</v>
-      </c>
-      <c r="F27" s="2">
-        <v>0</v>
-      </c>
-      <c r="G27" s="2">
-        <v>0</v>
-      </c>
-      <c r="H27" t="s">
-        <v>10</v>
-      </c>
-      <c r="J27" s="14"/>
-    </row>
-    <row r="28" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" s="8">
-        <v>1</v>
-      </c>
-      <c r="C28" s="8">
-        <v>0</v>
-      </c>
-      <c r="D28" s="8">
-        <v>0</v>
-      </c>
-      <c r="E28" s="8">
-        <v>0</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H28" s="9" t="s">
+      <c r="B28" s="2">
+        <v>1</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0</v>
+      </c>
+      <c r="F28" s="2">
+        <v>0</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0</v>
+      </c>
+      <c r="H28" t="s">
         <v>10</v>
       </c>
       <c r="J28" s="14"/>
     </row>
     <row r="29" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B29" s="8">
         <v>1</v>
       </c>
       <c r="C29" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" s="8">
         <v>0</v>
       </c>
       <c r="E29" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" s="9" t="s">
         <v>9</v>
@@ -1481,733 +1483,760 @@
     </row>
     <row r="30" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="8">
+        <v>1</v>
+      </c>
+      <c r="C30" s="8">
+        <v>1</v>
+      </c>
+      <c r="D30" s="8">
+        <v>0</v>
+      </c>
+      <c r="E30" s="8">
+        <v>1</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J30" s="14"/>
+    </row>
+    <row r="31" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="8">
-        <v>1</v>
-      </c>
-      <c r="C30" s="8">
-        <v>0</v>
-      </c>
-      <c r="D30" s="8">
-        <v>0</v>
-      </c>
-      <c r="E30" s="8">
-        <v>1</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H30" s="9" t="s">
+      <c r="B31" s="8">
+        <v>1</v>
+      </c>
+      <c r="C31" s="8">
+        <v>0</v>
+      </c>
+      <c r="D31" s="8">
+        <v>0</v>
+      </c>
+      <c r="E31" s="8">
+        <v>1</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H31" s="9" t="s">
         <v>15</v>
-      </c>
-      <c r="J30" s="14"/>
-    </row>
-    <row r="31" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31" s="3">
-        <v>1</v>
-      </c>
-      <c r="C31" s="3">
-        <v>1</v>
-      </c>
-      <c r="D31" s="3">
-        <v>1</v>
-      </c>
-      <c r="E31" s="3">
-        <v>1</v>
-      </c>
-      <c r="F31" s="3">
-        <v>1</v>
-      </c>
-      <c r="G31" s="3">
-        <v>1</v>
-      </c>
-      <c r="H31" t="s">
-        <v>10</v>
       </c>
       <c r="J31" s="14"/>
     </row>
     <row r="32" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="3">
+        <v>1</v>
+      </c>
+      <c r="C32" s="3">
+        <v>1</v>
+      </c>
+      <c r="D32" s="3">
+        <v>1</v>
+      </c>
+      <c r="E32" s="3">
+        <v>1</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1</v>
+      </c>
+      <c r="G32" s="3">
+        <v>1</v>
+      </c>
+      <c r="H32" t="s">
+        <v>10</v>
+      </c>
+      <c r="J32" s="14"/>
+    </row>
+    <row r="33" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="2">
-        <v>1</v>
-      </c>
-      <c r="C32" s="2">
-        <v>0</v>
-      </c>
-      <c r="D32" s="2">
-        <v>0</v>
-      </c>
-      <c r="E32" s="2">
-        <v>1</v>
-      </c>
-      <c r="F32" s="2">
-        <v>1</v>
-      </c>
-      <c r="G32" s="2">
-        <v>0</v>
-      </c>
-      <c r="H32" t="s">
-        <v>10</v>
-      </c>
-      <c r="J32" s="14"/>
-    </row>
-    <row r="33" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="7" t="s">
+      <c r="B33" s="2">
+        <v>1</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0</v>
+      </c>
+      <c r="E33" s="2">
+        <v>1</v>
+      </c>
+      <c r="F33" s="2">
+        <v>1</v>
+      </c>
+      <c r="G33" s="2">
+        <v>0</v>
+      </c>
+      <c r="H33" t="s">
+        <v>10</v>
+      </c>
+      <c r="J33" s="14"/>
+    </row>
+    <row r="34" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="8">
-        <v>0</v>
-      </c>
-      <c r="C33" s="8">
-        <v>0</v>
-      </c>
-      <c r="D33" s="8">
-        <v>0</v>
-      </c>
-      <c r="E33" s="8">
-        <v>1</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G33" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H33" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="J33" s="14"/>
-    </row>
-    <row r="34" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B34" s="2">
-        <v>1</v>
-      </c>
-      <c r="C34" s="2">
-        <v>0</v>
-      </c>
-      <c r="D34" s="2">
-        <v>0</v>
-      </c>
-      <c r="E34" s="2">
-        <v>0</v>
-      </c>
-      <c r="F34" s="2">
-        <v>0</v>
-      </c>
-      <c r="G34" s="2">
-        <v>0</v>
-      </c>
-      <c r="H34" t="s">
+      <c r="B34" s="8">
+        <v>0</v>
+      </c>
+      <c r="C34" s="8">
+        <v>0</v>
+      </c>
+      <c r="D34" s="8">
+        <v>0</v>
+      </c>
+      <c r="E34" s="8">
+        <v>1</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H34" s="9" t="s">
         <v>10</v>
       </c>
       <c r="J34" s="14"/>
     </row>
     <row r="35" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" s="2">
+        <v>1</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0</v>
+      </c>
+      <c r="F35" s="2">
+        <v>0</v>
+      </c>
+      <c r="G35" s="2">
+        <v>0</v>
+      </c>
+      <c r="H35" t="s">
+        <v>10</v>
+      </c>
+      <c r="J35" s="14"/>
+    </row>
+    <row r="36" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B35" s="2">
-        <v>1</v>
-      </c>
-      <c r="C35" s="2">
-        <v>0</v>
-      </c>
-      <c r="D35" s="2">
-        <v>0</v>
-      </c>
-      <c r="E35" s="2">
-        <v>1</v>
-      </c>
-      <c r="F35" s="2">
-        <v>1</v>
-      </c>
-      <c r="G35" s="2">
-        <v>0</v>
-      </c>
-      <c r="H35" t="s">
-        <v>10</v>
-      </c>
-      <c r="J35" s="14"/>
-    </row>
-    <row r="36" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="7" t="s">
+      <c r="B36" s="2">
+        <v>1</v>
+      </c>
+      <c r="C36" s="2">
+        <v>0</v>
+      </c>
+      <c r="D36" s="2">
+        <v>0</v>
+      </c>
+      <c r="E36" s="2">
+        <v>1</v>
+      </c>
+      <c r="F36" s="2">
+        <v>1</v>
+      </c>
+      <c r="G36" s="2">
+        <v>0</v>
+      </c>
+      <c r="H36" t="s">
+        <v>10</v>
+      </c>
+      <c r="J36" s="14"/>
+    </row>
+    <row r="37" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B36" s="8">
-        <v>1</v>
-      </c>
-      <c r="C36" s="8">
-        <v>0</v>
-      </c>
-      <c r="D36" s="8">
-        <v>0</v>
-      </c>
-      <c r="E36" s="8">
-        <v>0</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G36" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H36" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="J36" s="14"/>
-    </row>
-    <row r="37" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B37" s="3">
-        <v>1</v>
-      </c>
-      <c r="C37" s="3">
-        <v>1</v>
-      </c>
-      <c r="D37" s="2">
-        <v>1</v>
-      </c>
-      <c r="E37" s="2">
-        <v>0</v>
-      </c>
-      <c r="F37" s="2">
-        <v>1</v>
-      </c>
-      <c r="G37" s="2">
-        <v>1</v>
-      </c>
-      <c r="H37" t="s">
-        <v>15</v>
+      <c r="B37" s="8">
+        <v>1</v>
+      </c>
+      <c r="C37" s="8">
+        <v>0</v>
+      </c>
+      <c r="D37" s="8">
+        <v>0</v>
+      </c>
+      <c r="E37" s="8">
+        <v>0</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>10</v>
       </c>
       <c r="J37" s="14"/>
     </row>
     <row r="38" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" s="3">
+        <v>1</v>
+      </c>
+      <c r="C38" s="3">
+        <v>1</v>
+      </c>
+      <c r="D38" s="2">
+        <v>1</v>
+      </c>
+      <c r="E38" s="2">
+        <v>0</v>
+      </c>
+      <c r="F38" s="2">
+        <v>1</v>
+      </c>
+      <c r="G38" s="2">
+        <v>1</v>
+      </c>
+      <c r="H38" t="s">
+        <v>15</v>
+      </c>
+      <c r="J38" s="14"/>
+    </row>
+    <row r="39" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B38" s="2">
-        <v>0</v>
-      </c>
-      <c r="C38" s="2">
-        <v>1</v>
-      </c>
-      <c r="D38" s="2">
-        <v>1</v>
-      </c>
-      <c r="E38" s="2">
-        <v>0</v>
-      </c>
-      <c r="F38" s="2">
-        <v>1</v>
-      </c>
-      <c r="G38" s="2">
-        <v>1</v>
-      </c>
-      <c r="H38" t="s">
-        <v>10</v>
-      </c>
-      <c r="J38" s="14"/>
-    </row>
-    <row r="39" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="7" t="s">
+      <c r="B39" s="2">
+        <v>0</v>
+      </c>
+      <c r="C39" s="2">
+        <v>1</v>
+      </c>
+      <c r="D39" s="2">
+        <v>1</v>
+      </c>
+      <c r="E39" s="2">
+        <v>0</v>
+      </c>
+      <c r="F39" s="2">
+        <v>1</v>
+      </c>
+      <c r="G39" s="2">
+        <v>1</v>
+      </c>
+      <c r="H39" t="s">
+        <v>10</v>
+      </c>
+      <c r="J39" s="14"/>
+    </row>
+    <row r="40" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A40" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B39" s="8">
-        <v>0</v>
-      </c>
-      <c r="C39" s="8">
-        <v>1</v>
-      </c>
-      <c r="D39" s="8">
-        <v>0</v>
-      </c>
-      <c r="E39" s="8">
-        <v>1</v>
-      </c>
-      <c r="F39" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G39" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H39" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="J39" s="14"/>
-    </row>
-    <row r="40" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B40" s="2">
-        <v>0</v>
-      </c>
-      <c r="C40" s="2">
-        <v>1</v>
-      </c>
-      <c r="D40" s="2">
-        <v>0</v>
-      </c>
-      <c r="E40" s="2">
-        <v>1</v>
-      </c>
-      <c r="F40" s="2">
-        <v>1</v>
-      </c>
-      <c r="G40" s="2">
-        <v>1</v>
-      </c>
-      <c r="H40" t="s">
+      <c r="B40" s="8">
+        <v>0</v>
+      </c>
+      <c r="C40" s="8">
+        <v>1</v>
+      </c>
+      <c r="D40" s="8">
+        <v>0</v>
+      </c>
+      <c r="E40" s="8">
+        <v>1</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H40" s="9" t="s">
         <v>10</v>
       </c>
       <c r="J40" s="14"/>
     </row>
     <row r="41" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B41" s="2">
+        <v>0</v>
+      </c>
+      <c r="C41" s="2">
+        <v>1</v>
+      </c>
+      <c r="D41" s="2">
+        <v>0</v>
+      </c>
+      <c r="E41" s="2">
+        <v>1</v>
+      </c>
+      <c r="F41" s="2">
+        <v>1</v>
+      </c>
+      <c r="G41" s="2">
+        <v>1</v>
+      </c>
+      <c r="H41" t="s">
+        <v>10</v>
+      </c>
+      <c r="J41" s="14"/>
+    </row>
+    <row r="42" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B41" s="2">
-        <v>1</v>
-      </c>
-      <c r="C41" s="2">
-        <v>1</v>
-      </c>
-      <c r="D41" s="2">
-        <v>1</v>
-      </c>
-      <c r="E41" s="2">
-        <v>1</v>
-      </c>
-      <c r="F41" s="2">
-        <v>1</v>
-      </c>
-      <c r="G41" s="2">
-        <v>1</v>
-      </c>
-      <c r="H41" t="s">
-        <v>10</v>
-      </c>
-      <c r="J41" s="14"/>
-    </row>
-    <row r="42" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" s="7" t="s">
+      <c r="B42" s="2">
+        <v>1</v>
+      </c>
+      <c r="C42" s="2">
+        <v>1</v>
+      </c>
+      <c r="D42" s="2">
+        <v>1</v>
+      </c>
+      <c r="E42" s="2">
+        <v>1</v>
+      </c>
+      <c r="F42" s="2">
+        <v>1</v>
+      </c>
+      <c r="G42" s="2">
+        <v>1</v>
+      </c>
+      <c r="H42" t="s">
+        <v>10</v>
+      </c>
+      <c r="J42" s="14"/>
+    </row>
+    <row r="43" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A43" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B42" s="8">
-        <v>1</v>
-      </c>
-      <c r="C42" s="8">
-        <v>1</v>
-      </c>
-      <c r="D42" s="8">
-        <v>1</v>
-      </c>
-      <c r="E42" s="8">
-        <v>1</v>
-      </c>
-      <c r="F42" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G42" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H42" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="J42" s="14"/>
-    </row>
-    <row r="43" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
+      <c r="B43" s="8">
+        <v>1</v>
+      </c>
+      <c r="C43" s="8">
+        <v>1</v>
+      </c>
+      <c r="D43" s="8">
+        <v>1</v>
+      </c>
+      <c r="E43" s="8">
+        <v>1</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H43" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J43" s="14"/>
+    </row>
+    <row r="44" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B43" s="2">
-        <v>0</v>
-      </c>
-      <c r="C43" s="2">
-        <v>1</v>
-      </c>
-      <c r="D43" s="2">
-        <v>0</v>
-      </c>
-      <c r="E43" s="2">
-        <v>1</v>
-      </c>
-      <c r="F43" s="2">
-        <v>1</v>
-      </c>
-      <c r="G43" s="2">
-        <v>1</v>
-      </c>
-      <c r="H43" t="s">
-        <v>10</v>
-      </c>
-      <c r="J43" s="14"/>
-      <c r="L43" s="10"/>
-    </row>
-    <row r="44" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="7" t="s">
+      <c r="B44" s="2">
+        <v>0</v>
+      </c>
+      <c r="C44" s="2">
+        <v>1</v>
+      </c>
+      <c r="D44" s="2">
+        <v>0</v>
+      </c>
+      <c r="E44" s="2">
+        <v>1</v>
+      </c>
+      <c r="F44" s="2">
+        <v>1</v>
+      </c>
+      <c r="G44" s="2">
+        <v>1</v>
+      </c>
+      <c r="H44" t="s">
+        <v>10</v>
+      </c>
+      <c r="J44" s="14"/>
+      <c r="L44" s="10"/>
+    </row>
+    <row r="45" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A45" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B44" s="8">
-        <v>0</v>
-      </c>
-      <c r="C44" s="8">
-        <v>1</v>
-      </c>
-      <c r="D44" s="8">
-        <v>0</v>
-      </c>
-      <c r="E44" s="8">
-        <v>0</v>
-      </c>
-      <c r="F44" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G44" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H44" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="J44" s="14"/>
-    </row>
-    <row r="45" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B45" s="2">
-        <v>1</v>
-      </c>
-      <c r="C45" s="2">
-        <v>0</v>
-      </c>
-      <c r="D45" s="2">
-        <v>0</v>
-      </c>
-      <c r="E45" s="2">
-        <v>0</v>
-      </c>
-      <c r="F45" s="2">
-        <v>0</v>
-      </c>
-      <c r="G45" s="2">
-        <v>0</v>
-      </c>
-      <c r="H45" t="s">
-        <v>15</v>
-      </c>
-      <c r="J45" s="15"/>
+      <c r="B45" s="8">
+        <v>0</v>
+      </c>
+      <c r="C45" s="8">
+        <v>1</v>
+      </c>
+      <c r="D45" s="8">
+        <v>0</v>
+      </c>
+      <c r="E45" s="8">
+        <v>0</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H45" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J45" s="14"/>
     </row>
     <row r="46" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46" s="2">
+        <v>1</v>
+      </c>
+      <c r="C46" s="2">
+        <v>0</v>
+      </c>
+      <c r="D46" s="2">
+        <v>0</v>
+      </c>
+      <c r="E46" s="2">
+        <v>0</v>
+      </c>
+      <c r="F46" s="2">
+        <v>0</v>
+      </c>
+      <c r="G46" s="2">
+        <v>0</v>
+      </c>
+      <c r="H46" t="s">
+        <v>15</v>
+      </c>
+      <c r="J46" s="15"/>
+    </row>
+    <row r="47" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B46" s="3">
-        <v>1</v>
-      </c>
-      <c r="C46" s="2">
-        <v>0</v>
-      </c>
-      <c r="D46" s="2">
-        <v>0</v>
-      </c>
-      <c r="E46" s="2">
-        <v>0</v>
-      </c>
-      <c r="F46" s="2">
-        <v>0</v>
-      </c>
-      <c r="G46" s="2">
-        <v>0</v>
-      </c>
-      <c r="H46" t="s">
-        <v>10</v>
-      </c>
-      <c r="J46" s="14"/>
-    </row>
-    <row r="47" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A47" s="7" t="s">
+      <c r="B47" s="3">
+        <v>1</v>
+      </c>
+      <c r="C47" s="2">
+        <v>0</v>
+      </c>
+      <c r="D47" s="2">
+        <v>0</v>
+      </c>
+      <c r="E47" s="2">
+        <v>0</v>
+      </c>
+      <c r="F47" s="2">
+        <v>0</v>
+      </c>
+      <c r="G47" s="2">
+        <v>0</v>
+      </c>
+      <c r="H47" t="s">
+        <v>10</v>
+      </c>
+      <c r="J47" s="14"/>
+    </row>
+    <row r="48" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A48" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B47" s="8">
-        <v>1</v>
-      </c>
-      <c r="C47" s="8">
-        <v>1</v>
-      </c>
-      <c r="D47" s="8">
-        <v>1</v>
-      </c>
-      <c r="E47" s="8">
-        <v>0</v>
-      </c>
-      <c r="F47" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G47" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H47" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="J47" s="14"/>
-    </row>
-    <row r="48" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B48" s="2">
-        <v>1</v>
-      </c>
-      <c r="C48" s="2">
-        <v>0</v>
-      </c>
-      <c r="D48" s="2">
-        <v>0</v>
-      </c>
-      <c r="E48" s="2">
-        <v>0</v>
-      </c>
-      <c r="F48" s="2">
-        <v>0</v>
-      </c>
-      <c r="G48" s="2">
-        <v>0</v>
-      </c>
-      <c r="H48" t="s">
-        <v>15</v>
+      <c r="B48" s="8">
+        <v>1</v>
+      </c>
+      <c r="C48" s="8">
+        <v>1</v>
+      </c>
+      <c r="D48" s="8">
+        <v>1</v>
+      </c>
+      <c r="E48" s="8">
+        <v>0</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G48" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H48" s="9" t="s">
+        <v>10</v>
       </c>
       <c r="J48" s="14"/>
     </row>
     <row r="49" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49" s="2">
+        <v>1</v>
+      </c>
+      <c r="C49" s="2">
+        <v>0</v>
+      </c>
+      <c r="D49" s="2">
+        <v>0</v>
+      </c>
+      <c r="E49" s="2">
+        <v>0</v>
+      </c>
+      <c r="F49" s="2">
+        <v>0</v>
+      </c>
+      <c r="G49" s="2">
+        <v>0</v>
+      </c>
+      <c r="H49" t="s">
+        <v>15</v>
+      </c>
+      <c r="J49" s="14"/>
+    </row>
+    <row r="50" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B49" s="3">
-        <v>1</v>
-      </c>
-      <c r="C49" s="3">
-        <v>1</v>
-      </c>
-      <c r="D49" s="3">
-        <v>1</v>
-      </c>
-      <c r="E49" s="3">
-        <v>1</v>
-      </c>
-      <c r="F49" s="3">
-        <v>1</v>
-      </c>
-      <c r="G49" s="3">
-        <v>1</v>
-      </c>
-      <c r="H49" t="s">
-        <v>10</v>
-      </c>
-      <c r="J49" s="14"/>
-    </row>
-    <row r="50" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A50" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B50" s="8">
-        <v>1</v>
-      </c>
-      <c r="C50" s="8">
-        <v>1</v>
-      </c>
-      <c r="D50" s="8">
-        <v>1</v>
-      </c>
-      <c r="E50" s="8">
-        <v>0</v>
-      </c>
-      <c r="F50" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G50" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H50" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="J50" s="15"/>
+      <c r="B50" s="3">
+        <v>1</v>
+      </c>
+      <c r="C50" s="3">
+        <v>1</v>
+      </c>
+      <c r="D50" s="3">
+        <v>1</v>
+      </c>
+      <c r="E50" s="3">
+        <v>1</v>
+      </c>
+      <c r="F50" s="3">
+        <v>1</v>
+      </c>
+      <c r="G50" s="3">
+        <v>1</v>
+      </c>
+      <c r="H50" t="s">
+        <v>10</v>
+      </c>
+      <c r="J50" s="14"/>
     </row>
     <row r="51" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B51" s="8">
+        <v>1</v>
+      </c>
+      <c r="C51" s="8">
+        <v>1</v>
+      </c>
+      <c r="D51" s="8">
+        <v>1</v>
+      </c>
+      <c r="E51" s="8">
+        <v>0</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G51" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H51" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J51" s="15"/>
+    </row>
+    <row r="52" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A52" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B51" s="8">
-        <v>1</v>
-      </c>
-      <c r="C51" s="8">
-        <v>0</v>
-      </c>
-      <c r="D51" s="8">
-        <v>0</v>
-      </c>
-      <c r="E51" s="8">
-        <v>0</v>
-      </c>
-      <c r="F51" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G51" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H51" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B52" s="2">
-        <v>1</v>
-      </c>
-      <c r="C52" s="2">
-        <v>0</v>
-      </c>
-      <c r="D52" s="2">
-        <v>0</v>
-      </c>
-      <c r="E52" s="2">
-        <v>0</v>
-      </c>
-      <c r="F52" s="2">
-        <v>0</v>
-      </c>
-      <c r="G52" s="2">
-        <v>0</v>
-      </c>
-      <c r="H52" t="s">
-        <v>9</v>
+      <c r="B52" s="8">
+        <v>1</v>
+      </c>
+      <c r="C52" s="8">
+        <v>0</v>
+      </c>
+      <c r="D52" s="8">
+        <v>0</v>
+      </c>
+      <c r="E52" s="8">
+        <v>0</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H52" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53" s="2">
+        <v>1</v>
+      </c>
+      <c r="C53" s="2">
+        <v>0</v>
+      </c>
+      <c r="D53" s="2">
+        <v>0</v>
+      </c>
+      <c r="E53" s="2">
+        <v>0</v>
+      </c>
+      <c r="F53" s="2">
+        <v>0</v>
+      </c>
+      <c r="G53" s="2">
+        <v>0</v>
+      </c>
+      <c r="H53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B53" s="3">
-        <v>1</v>
-      </c>
-      <c r="C53" s="3">
-        <v>1</v>
-      </c>
-      <c r="D53" s="2">
-        <v>1</v>
-      </c>
-      <c r="E53" s="3">
-        <v>1</v>
-      </c>
-      <c r="F53" s="3">
-        <v>1</v>
-      </c>
-      <c r="G53" s="3">
-        <v>1</v>
-      </c>
-      <c r="H53" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A54" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B54" s="8">
-        <v>1</v>
-      </c>
-      <c r="C54" s="8">
-        <v>1</v>
-      </c>
-      <c r="D54" s="8">
-        <v>1</v>
-      </c>
-      <c r="E54" s="8">
-        <v>0</v>
-      </c>
-      <c r="F54" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G54" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H54" s="9" t="s">
+      <c r="B54" s="3">
+        <v>1</v>
+      </c>
+      <c r="C54" s="3">
+        <v>1</v>
+      </c>
+      <c r="D54" s="2">
+        <v>1</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1</v>
+      </c>
+      <c r="F54" s="3">
+        <v>1</v>
+      </c>
+      <c r="G54" s="3">
+        <v>1</v>
+      </c>
+      <c r="H54" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B55" s="8">
+        <v>1</v>
+      </c>
+      <c r="C55" s="8">
+        <v>1</v>
+      </c>
+      <c r="D55" s="8">
+        <v>1</v>
+      </c>
+      <c r="E55" s="8">
+        <v>0</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G55" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H55" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A56" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B55" s="8">
-        <v>1</v>
-      </c>
-      <c r="C55" s="8">
-        <v>1</v>
-      </c>
-      <c r="D55" s="8">
-        <v>1</v>
-      </c>
-      <c r="E55" s="8">
-        <v>1</v>
-      </c>
-      <c r="F55" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G55" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H55" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
+      <c r="B56" s="8">
+        <v>1</v>
+      </c>
+      <c r="C56" s="8">
+        <v>1</v>
+      </c>
+      <c r="D56" s="8">
+        <v>1</v>
+      </c>
+      <c r="E56" s="8">
+        <v>1</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G56" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H56" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B56" s="2">
-        <v>1</v>
-      </c>
-      <c r="C56" s="2">
-        <v>1</v>
-      </c>
-      <c r="D56" s="2">
-        <v>1</v>
-      </c>
-      <c r="E56" s="2">
-        <v>0</v>
-      </c>
-      <c r="F56" s="2">
-        <v>1</v>
-      </c>
-      <c r="G56" s="2">
-        <v>1</v>
-      </c>
-      <c r="H56" t="s">
+      <c r="B57" s="2">
+        <v>1</v>
+      </c>
+      <c r="C57" s="2">
+        <v>1</v>
+      </c>
+      <c r="D57" s="2">
+        <v>1</v>
+      </c>
+      <c r="E57" s="2">
+        <v>0</v>
+      </c>
+      <c r="F57" s="2">
+        <v>1</v>
+      </c>
+      <c r="G57" s="2">
+        <v>1</v>
+      </c>
+      <c r="H57" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="J2:J50">
-    <sortCondition ref="J1:J50"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="J2:J51">
+    <sortCondition ref="J1:J51"/>
   </sortState>
-  <conditionalFormatting sqref="I40 I54:L1048576 J53:L53 I52:L52 K40:L40">
+  <conditionalFormatting sqref="I41 I55:L1048576 J54:L54 I53:L53 K41:L41">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>

--- a/forage_plant_location.xlsx
+++ b/forage_plant_location.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elinfalla/Dropbox/2020-21/_Imperial_MSc/_Project/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD3853B-396C-C14A-80AC-A2C3C72CB6B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D5EF4C-14D4-1845-BD5E-7606EC6C426A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" xr2:uid="{B0640254-897E-44C3-B32E-9281997335F7}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="67">
   <si>
     <t>plantfamily</t>
   </si>
@@ -308,7 +308,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -350,6 +350,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -677,7 +680,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I19" sqref="I19"/>
+      <selection pane="bottomLeft" activeCell="F19" sqref="D19:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1194,13 +1197,13 @@
       <c r="C19" s="2">
         <v>0</v>
       </c>
-      <c r="D19" s="2">
-        <v>1</v>
-      </c>
-      <c r="E19" s="2">
-        <v>1</v>
-      </c>
-      <c r="F19" s="2">
+      <c r="D19" s="16">
+        <v>1</v>
+      </c>
+      <c r="E19" s="16">
+        <v>1</v>
+      </c>
+      <c r="F19" s="16">
         <v>1</v>
       </c>
       <c r="G19" s="2">
@@ -1224,7 +1227,7 @@
       <c r="D20" s="2">
         <v>1</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="16">
         <v>1</v>
       </c>
       <c r="F20" s="2">
@@ -2170,8 +2173,8 @@
       <c r="E55" s="8">
         <v>0</v>
       </c>
-      <c r="F55" s="9" t="s">
-        <v>9</v>
+      <c r="F55" s="13">
+        <v>1</v>
       </c>
       <c r="G55" s="9" t="s">
         <v>9</v>

--- a/forage_plant_location.xlsx
+++ b/forage_plant_location.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elinfalla/Dropbox/2020-21/_Imperial_MSc/_Project/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D5EF4C-14D4-1845-BD5E-7606EC6C426A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0673F18-C311-EF49-9B4B-3C8BE5A98501}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" xr2:uid="{B0640254-897E-44C3-B32E-9281997335F7}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="67">
   <si>
     <t>plantfamily</t>
   </si>
@@ -276,7 +276,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -295,6 +295,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -308,7 +314,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -354,6 +360,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -679,8 +686,8 @@
   <dimension ref="A1:L57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F19" sqref="D19:F19"/>
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -960,8 +967,8 @@
       <c r="E10" s="8">
         <v>0</v>
       </c>
-      <c r="F10" s="9" t="s">
-        <v>9</v>
+      <c r="F10" s="17">
+        <v>1</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>9</v>
@@ -1311,8 +1318,8 @@
       <c r="E23" s="8">
         <v>0</v>
       </c>
-      <c r="F23" s="9" t="s">
-        <v>9</v>
+      <c r="F23" s="17">
+        <v>1</v>
       </c>
       <c r="G23" s="9" t="s">
         <v>9</v>
@@ -1392,8 +1399,8 @@
       <c r="E26" s="8">
         <v>1</v>
       </c>
-      <c r="F26" s="9" t="s">
-        <v>9</v>
+      <c r="F26" s="17">
+        <v>1</v>
       </c>
       <c r="G26" s="9" t="s">
         <v>9</v>
@@ -1419,8 +1426,8 @@
       <c r="E27" s="8">
         <v>1</v>
       </c>
-      <c r="F27" s="9" t="s">
-        <v>9</v>
+      <c r="F27" s="17">
+        <v>1</v>
       </c>
       <c r="G27" s="9" t="s">
         <v>9</v>
@@ -1500,8 +1507,8 @@
       <c r="E30" s="8">
         <v>1</v>
       </c>
-      <c r="F30" s="9" t="s">
-        <v>9</v>
+      <c r="F30" s="17">
+        <v>1</v>
       </c>
       <c r="G30" s="9" t="s">
         <v>9</v>
@@ -1527,8 +1534,8 @@
       <c r="E31" s="8">
         <v>1</v>
       </c>
-      <c r="F31" s="9" t="s">
-        <v>9</v>
+      <c r="F31" s="17">
+        <v>1</v>
       </c>
       <c r="G31" s="9" t="s">
         <v>9</v>
@@ -1608,8 +1615,8 @@
       <c r="E34" s="8">
         <v>1</v>
       </c>
-      <c r="F34" s="9" t="s">
-        <v>9</v>
+      <c r="F34" s="17">
+        <v>1</v>
       </c>
       <c r="G34" s="9" t="s">
         <v>9</v>
@@ -1770,8 +1777,8 @@
       <c r="E40" s="8">
         <v>1</v>
       </c>
-      <c r="F40" s="9" t="s">
-        <v>9</v>
+      <c r="F40" s="17">
+        <v>1</v>
       </c>
       <c r="G40" s="9" t="s">
         <v>9</v>
@@ -1851,8 +1858,8 @@
       <c r="E43" s="8">
         <v>1</v>
       </c>
-      <c r="F43" s="9" t="s">
-        <v>9</v>
+      <c r="F43" s="17">
+        <v>1</v>
       </c>
       <c r="G43" s="9" t="s">
         <v>9</v>
@@ -1987,8 +1994,8 @@
       <c r="E48" s="8">
         <v>0</v>
       </c>
-      <c r="F48" s="9" t="s">
-        <v>9</v>
+      <c r="F48" s="17">
+        <v>1</v>
       </c>
       <c r="G48" s="9" t="s">
         <v>9</v>
@@ -2068,8 +2075,8 @@
       <c r="E51" s="8">
         <v>0</v>
       </c>
-      <c r="F51" s="9" t="s">
-        <v>9</v>
+      <c r="F51" s="17">
+        <v>1</v>
       </c>
       <c r="G51" s="9" t="s">
         <v>9</v>
@@ -2199,8 +2206,8 @@
       <c r="E56" s="8">
         <v>1</v>
       </c>
-      <c r="F56" s="9" t="s">
-        <v>9</v>
+      <c r="F56" s="17">
+        <v>1</v>
       </c>
       <c r="G56" s="9" t="s">
         <v>9</v>

--- a/forage_plant_location.xlsx
+++ b/forage_plant_location.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elinfalla/Dropbox/2020-21/_Imperial_MSc/_Project/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0673F18-C311-EF49-9B4B-3C8BE5A98501}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA76F6D8-F761-E34C-9243-DB506339EEE9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" xr2:uid="{B0640254-897E-44C3-B32E-9281997335F7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{B0640254-897E-44C3-B32E-9281997335F7}"/>
   </bookViews>
   <sheets>
     <sheet name="forage_plant_location" sheetId="1" r:id="rId1"/>
@@ -686,8 +686,8 @@
   <dimension ref="A1:L57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F57" sqref="F57"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1297,7 +1297,7 @@
       <c r="G22" s="3">
         <v>0</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="13" t="s">
         <v>15</v>
       </c>
       <c r="J22" s="14"/>
@@ -1540,7 +1540,7 @@
       <c r="G31" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H31" s="9" t="s">
+      <c r="H31" s="13" t="s">
         <v>15</v>
       </c>
       <c r="J31" s="14"/>
@@ -1729,7 +1729,7 @@
       <c r="G38" s="2">
         <v>1</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H38" s="13" t="s">
         <v>15</v>
       </c>
       <c r="J38" s="14"/>
@@ -1946,7 +1946,7 @@
       <c r="G46" s="2">
         <v>0</v>
       </c>
-      <c r="H46" t="s">
+      <c r="H46" s="13" t="s">
         <v>15</v>
       </c>
       <c r="J46" s="15"/>
@@ -2027,7 +2027,7 @@
       <c r="G49" s="2">
         <v>0</v>
       </c>
-      <c r="H49" t="s">
+      <c r="H49" s="13" t="s">
         <v>15</v>
       </c>
       <c r="J49" s="14"/>

--- a/forage_plant_location.xlsx
+++ b/forage_plant_location.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elinfalla/Dropbox/2020-21/_Imperial_MSc/_Project/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA76F6D8-F761-E34C-9243-DB506339EEE9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F24F8D02-EF47-6E41-A677-12278FD629FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{B0640254-897E-44C3-B32E-9281997335F7}"/>
   </bookViews>
@@ -276,7 +276,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -301,6 +301,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -314,7 +320,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -361,6 +367,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -686,8 +695,8 @@
   <dimension ref="A1:L57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G37" sqref="G37"/>
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -964,7 +973,7 @@
       <c r="D10" s="8">
         <v>1</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="18">
         <v>0</v>
       </c>
       <c r="F10" s="17">
@@ -1720,7 +1729,7 @@
       <c r="D38" s="2">
         <v>1</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="16">
         <v>0</v>
       </c>
       <c r="F38" s="2">
